--- a/chatgpt.xlsx
+++ b/chatgpt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W114"/>
+  <dimension ref="A1:AA122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,27 +526,47 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>depth_complexity</t>
+          <t>length_complexity</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>length_complexity</t>
+          <t>weighted_complexity</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>weighted_complexity</t>
+          <t>Remark or Note</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Remark or Note</t>
+          <t>Prompt1-Iter</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Complexity</t>
+          <t>Prompt2-Iter</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Prompt3-Iter</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Prompt1-Last Error</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Prompt2-Last Error</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Prompt3-Last Error</t>
         </is>
       </c>
     </row>
@@ -669,32 +689,47 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.96</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.96/1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.96/1</t>
+        </is>
       </c>
       <c r="P2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
+        <v>12</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1434</v>
+      </c>
+      <c r="T2" t="n">
+        <v>19.17</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="n">
         <v>2</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1434</v>
-      </c>
-      <c r="U2" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>9.17</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Error in the previous response:Error: ERROR:  INSERT has more expressions than target columns
+LINE 100:     PCT_HOURLY_2500</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -777,21 +812,27 @@
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1122</v>
       </c>
       <c r="T3" t="n">
-        <v>1122</v>
-      </c>
-      <c r="U3" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="V3" t="inlineStr"/>
+        <v>18.61</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
       <c r="W3" t="n">
-        <v>7.61</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -880,21 +921,27 @@
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1188</v>
       </c>
       <c r="T4" t="n">
-        <v>1188</v>
-      </c>
-      <c r="U4" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
+        <v>18.94</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
       <c r="W4" t="n">
-        <v>7.94</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -978,21 +1025,27 @@
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1051</v>
       </c>
       <c r="T5" t="n">
-        <v>1051</v>
-      </c>
-      <c r="U5" t="n">
-        <v>7.255</v>
-      </c>
-      <c r="V5" t="inlineStr"/>
+        <v>18.255</v>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
       <c r="W5" t="n">
-        <v>7.255</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -1075,21 +1128,27 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="T6" t="n">
-        <v>1170</v>
-      </c>
-      <c r="U6" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="V6" t="inlineStr"/>
+        <v>19.85</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
       <c r="W6" t="n">
-        <v>7.85</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -1173,21 +1232,27 @@
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="T7" t="n">
-        <v>1054</v>
-      </c>
-      <c r="U7" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="V7" t="inlineStr"/>
+        <v>18.27</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
       <c r="W7" t="n">
-        <v>7.27</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -1263,32 +1328,50 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="N8" t="n">
-        <v>0.96</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.96/1</t>
+        </is>
       </c>
       <c r="O8" t="n">
         <v>0.96</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0/.96</t>
+        </is>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="T8" t="n">
-        <v>1055</v>
-      </c>
-      <c r="U8" t="n">
-        <v>6.275</v>
-      </c>
-      <c r="V8" t="inlineStr"/>
+        <v>17.275</v>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>6</v>
+      </c>
       <c r="W8" t="n">
-        <v>6.275</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>No Error, but CONCAT(Segment, ' ', Date) AS CST, was GPT response which does not match with ground truth</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>No Error, but CONCAT(Segment, ' ', Date) AS CST, was GPT response which does not match with ground truth</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -1404,21 +1487,35 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3323</v>
       </c>
       <c r="T9" t="n">
-        <v>3323</v>
-      </c>
-      <c r="U9" t="n">
-        <v>24.615</v>
-      </c>
-      <c r="V9" t="inlineStr"/>
+        <v>38.61499999999999</v>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>6</v>
+      </c>
       <c r="W9" t="n">
-        <v>24.615</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -1533,21 +1630,35 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3178</v>
       </c>
       <c r="T10" t="n">
-        <v>3178</v>
-      </c>
-      <c r="U10" t="n">
-        <v>23.89</v>
-      </c>
-      <c r="V10" t="inlineStr"/>
+        <v>37.89</v>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="n">
+        <v>6</v>
+      </c>
       <c r="W10" t="n">
-        <v>23.89</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1663,20 +1774,38 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3447</v>
       </c>
       <c r="T11" t="n">
-        <v>3447</v>
-      </c>
-      <c r="U11" t="n">
-        <v>25.235</v>
-      </c>
-      <c r="V11" t="inlineStr"/>
+        <v>39.235</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>6</v>
+      </c>
       <c r="W11" t="n">
-        <v>25.235</v>
+        <v>6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1797,26 +1926,34 @@
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1954</v>
       </c>
       <c r="T12" t="n">
-        <v>1954</v>
-      </c>
-      <c r="U12" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="V12" t="inlineStr"/>
+        <v>27.77</v>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="n">
+        <v>1</v>
+      </c>
       <c r="W12" t="n">
-        <v>14.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -1963,26 +2100,38 @@
       <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2392</v>
       </c>
       <c r="T13" t="n">
-        <v>2392</v>
-      </c>
-      <c r="U13" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="V13" t="inlineStr"/>
+        <v>31.96</v>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="n">
+        <v>1</v>
+      </c>
       <c r="W13" t="n">
-        <v>18.96</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No Error, second attribute  DOW calculation was wronghence could not match ground truth. </t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -2104,21 +2253,27 @@
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>2256</v>
       </c>
       <c r="T14" t="n">
-        <v>2256</v>
-      </c>
-      <c r="U14" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="V14" t="inlineStr"/>
+        <v>26.28</v>
+      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="n">
+        <v>1</v>
+      </c>
       <c r="W14" t="n">
-        <v>14.28</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -2235,26 +2390,40 @@
       <c r="O15" t="n">
         <v>0</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0/0.96</t>
+        </is>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1608</v>
       </c>
       <c r="T15" t="n">
-        <v>1608</v>
-      </c>
-      <c r="U15" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="V15" t="inlineStr"/>
+        <v>25.04</v>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0.96 in iter=1, in rest failed</t>
+        </is>
+      </c>
       <c r="W15" t="n">
-        <v>11.04</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -2348,21 +2517,27 @@
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1616</v>
       </c>
       <c r="T16" t="n">
-        <v>1616</v>
-      </c>
-      <c r="U16" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="V16" t="inlineStr"/>
+        <v>23.08</v>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="n">
+        <v>1</v>
+      </c>
       <c r="W16" t="n">
-        <v>11.08</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -2474,32 +2649,52 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0/1</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0/0.96</t>
+        </is>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2069</v>
       </c>
       <c r="T17" t="n">
-        <v>2069</v>
-      </c>
-      <c r="U17" t="n">
-        <v>13.345</v>
-      </c>
-      <c r="V17" t="inlineStr"/>
+        <v>25.345</v>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="n">
+        <v>6</v>
+      </c>
       <c r="W17" t="n">
-        <v>13.345</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No Error, second attribute  DOW calculation was wronghence could not match ground truth. </t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>No Error, First column mapping is not correct</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -2599,26 +2794,38 @@
       <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0/0.96</t>
+        </is>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1968</v>
       </c>
       <c r="T18" t="n">
-        <v>1968</v>
-      </c>
-      <c r="U18" t="n">
-        <v>16.84</v>
-      </c>
-      <c r="V18" t="inlineStr"/>
+        <v>28.84</v>
+      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="n">
+        <v>6</v>
+      </c>
       <c r="W18" t="n">
-        <v>16.84</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No Error. first attibute cpuld not map. </t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -2740,25 +2947,33 @@
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>4841</v>
       </c>
       <c r="T19" t="n">
-        <v>4841</v>
-      </c>
-      <c r="U19" t="n">
-        <v>32.205</v>
-      </c>
-      <c r="V19" t="inlineStr">
+        <v>47.205</v>
+      </c>
+      <c r="U19" t="inlineStr">
         <is>
           <t>Sample must avoid many similar values.</t>
         </is>
       </c>
+      <c r="V19" t="n">
+        <v>6</v>
+      </c>
       <c r="W19" t="n">
-        <v>32.205</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -2881,25 +3096,33 @@
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4642</v>
       </c>
       <c r="T20" t="n">
-        <v>4642</v>
-      </c>
-      <c r="U20" t="n">
-        <v>31.21</v>
-      </c>
-      <c r="V20" t="inlineStr">
+        <v>46.21</v>
+      </c>
+      <c r="U20" t="inlineStr">
         <is>
           <t>Sample must avoid many similar values.</t>
         </is>
       </c>
+      <c r="V20" t="n">
+        <v>6</v>
+      </c>
       <c r="W20" t="n">
-        <v>31.21</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -3009,8 +3232,10 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
-      <c r="N21" t="n">
-        <v>0</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0/0.93</t>
+        </is>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -3020,21 +3245,35 @@
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>4910</v>
       </c>
       <c r="T21" t="n">
-        <v>4910</v>
-      </c>
-      <c r="U21" t="n">
-        <v>32.55</v>
-      </c>
-      <c r="V21" t="inlineStr"/>
+        <v>46.55</v>
+      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="n">
+        <v>6</v>
+      </c>
       <c r="W21" t="n">
-        <v>32.55</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X21" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3161,31 +3400,56 @@
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>1/0.96</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1/0.96</t>
+        </is>
       </c>
       <c r="P22" t="n">
         <v>0.96</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1291</v>
       </c>
       <c r="T22" t="n">
-        <v>1291</v>
-      </c>
-      <c r="U22" t="n">
-        <v>15.455</v>
-      </c>
-      <c r="V22" t="inlineStr"/>
+        <v>29.455</v>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="n">
+        <v>6</v>
+      </c>
       <c r="W22" t="n">
-        <v>15.455</v>
+        <v>6</v>
+      </c>
+      <c r="X22" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>stopped at iter 2 with 0.96 accuracy</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>second attribute mapping is not correct hence accuracy 0.96</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>iter-1: Error: ERROR:  operator does not exist: text = integer
+LINE 80: ...O_DATE(SUBSTRING(CST, 5, 10), 'MM/DD/YYYY'), 'D') IN (1, 7) ...
+                                                              ^
+HINT:  No operator matches the given name and argument types. You might need to add explicit type casts. Iter-2: similarity score improved to 0.96. One attribute mapping failed.</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -3301,21 +3565,27 @@
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1437</v>
       </c>
       <c r="T23" t="n">
-        <v>1437</v>
-      </c>
-      <c r="U23" t="n">
-        <v>14.185</v>
-      </c>
-      <c r="V23" t="inlineStr"/>
+        <v>29.185</v>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="n">
+        <v>2</v>
+      </c>
       <c r="W23" t="n">
-        <v>14.185</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -3427,21 +3697,35 @@
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1574</v>
       </c>
       <c r="T24" t="n">
-        <v>1574</v>
-      </c>
-      <c r="U24" t="n">
-        <v>12.87</v>
-      </c>
-      <c r="V24" t="inlineStr"/>
+        <v>27.87</v>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="n">
+        <v>6</v>
+      </c>
       <c r="W24" t="n">
-        <v>12.87</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>First and second attribute mapping failed.</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>First and second attribute mapping failed.</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -3562,21 +3846,27 @@
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1464</v>
       </c>
       <c r="T25" t="n">
-        <v>1464</v>
-      </c>
-      <c r="U25" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="V25" t="inlineStr"/>
+        <v>32.32</v>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="n">
+        <v>1</v>
+      </c>
       <c r="W25" t="n">
-        <v>15.32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -3694,21 +3984,27 @@
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1290</v>
       </c>
       <c r="T26" t="n">
-        <v>1290</v>
-      </c>
-      <c r="U26" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="V26" t="inlineStr"/>
+        <v>30.45</v>
+      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="n">
+        <v>5</v>
+      </c>
       <c r="W26" t="n">
-        <v>13.45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -3798,21 +4094,27 @@
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1127</v>
       </c>
       <c r="T27" t="n">
-        <v>1127</v>
-      </c>
-      <c r="U27" t="n">
-        <v>13.635</v>
-      </c>
-      <c r="V27" t="inlineStr"/>
+        <v>30.635</v>
+      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="n">
+        <v>1</v>
+      </c>
       <c r="W27" t="n">
-        <v>13.635</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -3928,21 +4230,27 @@
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1255</v>
       </c>
       <c r="T28" t="n">
-        <v>1255</v>
-      </c>
-      <c r="U28" t="n">
-        <v>14.275</v>
-      </c>
-      <c r="V28" t="inlineStr"/>
+        <v>32.275</v>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="n">
+        <v>1</v>
+      </c>
       <c r="W28" t="n">
-        <v>14.275</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -4033,21 +4341,27 @@
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1127</v>
       </c>
       <c r="T29" t="n">
-        <v>1127</v>
-      </c>
-      <c r="U29" t="n">
-        <v>13.635</v>
-      </c>
-      <c r="V29" t="inlineStr"/>
+        <v>30.635</v>
+      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="n">
+        <v>2</v>
+      </c>
       <c r="W29" t="n">
-        <v>13.635</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -4150,29 +4464,47 @@
       <c r="N30" t="n">
         <v>1</v>
       </c>
-      <c r="O30" t="n">
-        <v>1</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1</v>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>1/0.96</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1938</v>
       </c>
       <c r="T30" t="n">
-        <v>1938</v>
-      </c>
-      <c r="U30" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="V30" t="inlineStr"/>
+        <v>33.69</v>
+      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="n">
+        <v>6</v>
+      </c>
       <c r="W30" t="n">
-        <v>15.69</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>No error, low score for two attributes.</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -4294,21 +4626,35 @@
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>2981</v>
       </c>
       <c r="T31" t="n">
-        <v>2981</v>
-      </c>
-      <c r="U31" t="n">
-        <v>22.905</v>
-      </c>
-      <c r="V31" t="inlineStr"/>
+        <v>42.905</v>
+      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="n">
+        <v>6</v>
+      </c>
       <c r="W31" t="n">
-        <v>22.905</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4440,30 +4786,42 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" t="n">
-        <v>1</v>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1885</v>
       </c>
       <c r="T32" t="n">
-        <v>1885</v>
-      </c>
-      <c r="U32" t="n">
-        <v>11.425</v>
-      </c>
-      <c r="V32" t="inlineStr">
+        <v>27.425</v>
+      </c>
+      <c r="U32" t="inlineStr">
         <is>
           <t>in E, schema have first column empty which is date</t>
         </is>
       </c>
+      <c r="V32" t="n">
+        <v>6</v>
+      </c>
       <c r="W32" t="n">
-        <v>11.425</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -4580,21 +4938,35 @@
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>3346</v>
       </c>
       <c r="T33" t="n">
-        <v>3346</v>
-      </c>
-      <c r="U33" t="n">
-        <v>23.73</v>
-      </c>
-      <c r="V33" t="inlineStr"/>
+        <v>42.73</v>
+      </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="n">
+        <v>6</v>
+      </c>
       <c r="W33" t="n">
-        <v>23.73</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -4711,20 +5083,38 @@
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>3227</v>
       </c>
       <c r="T34" t="n">
-        <v>3227</v>
-      </c>
-      <c r="U34" t="n">
-        <v>23.135</v>
-      </c>
-      <c r="V34" t="inlineStr"/>
+        <v>42.13500000000001</v>
+      </c>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="n">
+        <v>6</v>
+      </c>
       <c r="W34" t="n">
-        <v>23.135</v>
+        <v>6</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>No error message, last attribute similarity score was 0 then changed in iter-2.</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -4842,21 +5232,35 @@
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3274</v>
       </c>
       <c r="T35" t="n">
-        <v>3274</v>
-      </c>
-      <c r="U35" t="n">
-        <v>23.37</v>
-      </c>
-      <c r="V35" t="inlineStr"/>
+        <v>42.37</v>
+      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="n">
+        <v>6</v>
+      </c>
       <c r="W35" t="n">
-        <v>23.37</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -4947,21 +5351,27 @@
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1196</v>
       </c>
       <c r="T36" t="n">
-        <v>1196</v>
-      </c>
-      <c r="U36" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="V36" t="inlineStr"/>
+        <v>22.98</v>
+      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
+        <v>1</v>
+      </c>
       <c r="W36" t="n">
-        <v>6.98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -5072,21 +5482,31 @@
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1068</v>
       </c>
       <c r="T37" t="n">
-        <v>1068</v>
-      </c>
-      <c r="U37" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="V37" t="inlineStr"/>
+        <v>19.34</v>
+      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="n">
+        <v>6</v>
+      </c>
       <c r="W37" t="n">
-        <v>6.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>Error: ERROR:  INSERT has more expressions than target columns</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -5189,26 +5609,38 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" t="n">
-        <v>1</v>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1606</v>
       </c>
       <c r="T38" t="n">
-        <v>1606</v>
-      </c>
-      <c r="U38" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="V38" t="inlineStr"/>
+        <v>26.03</v>
+      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="n">
+        <v>6</v>
+      </c>
       <c r="W38" t="n">
-        <v>10.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -5314,26 +5746,42 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" t="n">
-        <v>1</v>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>1/0.96</t>
+        </is>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="T39" t="n">
-        <v>1027</v>
-      </c>
-      <c r="U39" t="n">
-        <v>6.135</v>
-      </c>
-      <c r="V39" t="inlineStr"/>
+        <v>19.135</v>
+      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="n">
+        <v>6</v>
+      </c>
       <c r="W39" t="n">
-        <v>6.135</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>One attribute mapping failed.</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -5436,25 +5884,45 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" t="n">
-        <v>0.96</v>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0.96/0</t>
+        </is>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
+        <v>18</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1559</v>
+      </c>
+      <c r="T40" t="n">
+        <v>25.795</v>
+      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="n">
+        <v>6</v>
+      </c>
+      <c r="W40" t="n">
         <v>2</v>
       </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1559</v>
-      </c>
-      <c r="U40" t="n">
-        <v>9.795</v>
-      </c>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="n">
-        <v>9.795</v>
+      <c r="X40" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>No error message, first attribute similarity score was 0 then changed in iter-2.</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -5566,26 +6034,42 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" t="n">
-        <v>0.96</v>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0.96/0</t>
+        </is>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1378</v>
       </c>
       <c r="T41" t="n">
-        <v>1378</v>
-      </c>
-      <c r="U41" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="V41" t="inlineStr"/>
+        <v>25.89</v>
+      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="n">
+        <v>6</v>
+      </c>
       <c r="W41" t="n">
-        <v>8.890000000000001</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5699,25 +6183,39 @@
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1308</v>
       </c>
       <c r="T42" t="n">
-        <v>1308</v>
-      </c>
-      <c r="U42" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="V42" t="inlineStr">
+        <v>24.54</v>
+      </c>
+      <c r="U42" t="inlineStr">
         <is>
           <t>in E, schema have first column empty which is date</t>
         </is>
       </c>
+      <c r="V42" t="n">
+        <v>2</v>
+      </c>
       <c r="W42" t="n">
-        <v>10.54</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>No error message, first attribute similarity score was 0 then changed in iter-2.</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -5833,21 +6331,27 @@
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1644</v>
       </c>
       <c r="T43" t="n">
-        <v>1644</v>
-      </c>
-      <c r="U43" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="V43" t="inlineStr"/>
+        <v>25.22</v>
+      </c>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="n">
+        <v>1</v>
+      </c>
       <c r="W43" t="n">
-        <v>9.220000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -5961,21 +6465,31 @@
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1931</v>
       </c>
       <c r="T44" t="n">
-        <v>1931</v>
-      </c>
-      <c r="U44" t="n">
-        <v>11.655</v>
-      </c>
-      <c r="V44" t="inlineStr"/>
+        <v>26.655</v>
+      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="n">
+        <v>6</v>
+      </c>
       <c r="W44" t="n">
-        <v>11.655</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -6060,21 +6574,31 @@
       </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1242</v>
       </c>
       <c r="T45" t="n">
-        <v>1242</v>
-      </c>
-      <c r="U45" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="V45" t="inlineStr"/>
+        <v>23.21</v>
+      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="n">
+        <v>6</v>
+      </c>
       <c r="W45" t="n">
-        <v>8.210000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -6186,21 +6710,27 @@
       </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1422</v>
       </c>
       <c r="T46" t="n">
-        <v>1422</v>
-      </c>
-      <c r="U46" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="V46" t="inlineStr"/>
+        <v>24.11</v>
+      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="n">
+        <v>1</v>
+      </c>
       <c r="W46" t="n">
-        <v>8.109999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -6309,21 +6839,27 @@
       </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="T47" t="n">
-        <v>1302</v>
-      </c>
-      <c r="U47" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="V47" t="inlineStr"/>
+        <v>22.51</v>
+      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="n">
+        <v>1</v>
+      </c>
       <c r="W47" t="n">
-        <v>7.51</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -6416,21 +6952,35 @@
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1263</v>
       </c>
       <c r="T48" t="n">
-        <v>1263</v>
-      </c>
-      <c r="U48" t="n">
-        <v>8.315000000000001</v>
-      </c>
-      <c r="V48" t="inlineStr"/>
+        <v>24.315</v>
+      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="n">
+        <v>6</v>
+      </c>
       <c r="W48" t="n">
-        <v>8.315000000000001</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -6547,21 +7097,35 @@
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>3391</v>
       </c>
       <c r="T49" t="n">
-        <v>3391</v>
-      </c>
-      <c r="U49" t="n">
-        <v>23.955</v>
-      </c>
-      <c r="V49" t="inlineStr"/>
+        <v>42.955</v>
+      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="n">
+        <v>6</v>
+      </c>
       <c r="W49" t="n">
-        <v>23.955</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -6678,21 +7242,35 @@
       </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>3279</v>
       </c>
       <c r="T50" t="n">
-        <v>3279</v>
-      </c>
-      <c r="U50" t="n">
-        <v>23.395</v>
-      </c>
-      <c r="V50" t="inlineStr"/>
+        <v>41.395</v>
+      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="n">
+        <v>6</v>
+      </c>
       <c r="W50" t="n">
-        <v>23.395</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -6809,21 +7387,35 @@
       </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>3451</v>
       </c>
       <c r="T51" t="n">
-        <v>3451</v>
-      </c>
-      <c r="U51" t="n">
-        <v>24.255</v>
-      </c>
-      <c r="V51" t="inlineStr"/>
+        <v>42.255</v>
+      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="n">
+        <v>6</v>
+      </c>
       <c r="W51" t="n">
-        <v>24.255</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>miss-match: # of rows in result and ground truth</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6941,29 +7533,45 @@
       <c r="N52" t="n">
         <v>1</v>
       </c>
-      <c r="O52" t="n">
-        <v>0.63</v>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>0.63/0.95</t>
+        </is>
       </c>
       <c r="P52" t="n">
         <v>0.95</v>
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1427</v>
       </c>
       <c r="T52" t="n">
-        <v>1427</v>
-      </c>
-      <c r="U52" t="n">
-        <v>11.135</v>
-      </c>
-      <c r="V52" t="inlineStr"/>
+        <v>31.135</v>
+      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="n">
+        <v>6</v>
+      </c>
       <c r="W52" t="n">
-        <v>11.135</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>Error: ERROR:  INSERT has more target columns than expressions</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>No error message, low similarity score for one attributes.</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -7046,33 +7654,49 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Fail</t>
-        </is>
-      </c>
-      <c r="P53" t="n">
-        <v>0.74</v>
+          <t>Fail/0.95</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0.74/0.95</t>
+        </is>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="T53" t="n">
-        <v>675</v>
-      </c>
-      <c r="U53" t="n">
-        <v>4.375</v>
-      </c>
-      <c r="V53" t="inlineStr">
+        <v>20.375</v>
+      </c>
+      <c r="U53" t="inlineStr">
         <is>
           <t>When data is complex, will have a "numeric field overflow error"</t>
         </is>
       </c>
+      <c r="V53" t="n">
+        <v>6</v>
+      </c>
       <c r="W53" t="n">
-        <v>4.375</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>Error: ERROR:  invalid input syntax for type numeric: "WEEKDAY"</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>No error message, low similarity score for one attributes.</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7182,25 +7806,40 @@
       </c>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="T54" t="n">
-        <v>976</v>
-      </c>
-      <c r="U54" t="n">
-        <v>9.879999999999999</v>
-      </c>
-      <c r="V54" t="inlineStr">
+        <v>28.88</v>
+      </c>
+      <c r="U54" t="inlineStr">
         <is>
           <t>y = mx + b; low and hig end temperature</t>
         </is>
       </c>
+      <c r="V54" t="n">
+        <v>6</v>
+      </c>
       <c r="W54" t="n">
-        <v>9.879999999999999</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>Error: ERROR:  numeric field overflow
+DETAIL:  A field with precision 4, scale 1 must round to an absolute value less than 10^3.</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>No error message, low similarity score for two attributes.</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -7287,29 +7926,48 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Fail/0.62</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1006</v>
       </c>
       <c r="T55" t="n">
-        <v>1006</v>
-      </c>
-      <c r="U55" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="V55" t="inlineStr">
+        <v>29.03</v>
+      </c>
+      <c r="U55" t="inlineStr">
         <is>
           <t xml:space="preserve">Insertion fail: values to be inserted have 8 consecutive NULLs but generated insert statement has only 7 consecutive NULLs </t>
         </is>
       </c>
+      <c r="V55" t="n">
+        <v>6</v>
+      </c>
       <c r="W55" t="n">
-        <v>10.03</v>
+        <v>6</v>
+      </c>
+      <c r="X55" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>Error: ERROR:  numeric field overflow
+DETAIL:  A field with precision 4, scale 1 must round to an absolute value less than 10^3.</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>Error: ERROR:  INSERT has more target columns than expressions</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>Error: ERROR:  INSERT has more target columns than expressions</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -7388,31 +8046,47 @@
       <c r="N56" t="n">
         <v>1</v>
       </c>
-      <c r="O56" t="n">
-        <v>0.5</v>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0.5/0.62</t>
+        </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Fail/0.62</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1119</v>
       </c>
       <c r="T56" t="n">
-        <v>1119</v>
-      </c>
-      <c r="U56" t="n">
-        <v>10.595</v>
-      </c>
-      <c r="V56" t="inlineStr"/>
+        <v>28.595</v>
+      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="n">
+        <v>6</v>
+      </c>
       <c r="W56" t="n">
-        <v>10.595</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>Error: ERROR:  INSERT has more expressions than target columns</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>no error message,some attribute have low similarity score.</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7530,25 +8204,31 @@
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1684</v>
       </c>
       <c r="T57" t="n">
-        <v>1684</v>
-      </c>
-      <c r="U57" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="V57" t="inlineStr">
+        <v>31.42</v>
+      </c>
+      <c r="U57" t="inlineStr">
         <is>
           <t>Hour value are 1,2,...24</t>
         </is>
       </c>
+      <c r="V57" t="n">
+        <v>6</v>
+      </c>
       <c r="W57" t="n">
-        <v>14.42</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -7644,25 +8324,31 @@
       </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>1659</v>
       </c>
       <c r="T58" t="n">
-        <v>1659</v>
-      </c>
-      <c r="U58" t="n">
-        <v>14.295</v>
-      </c>
-      <c r="V58" t="inlineStr">
+        <v>31.295</v>
+      </c>
+      <c r="U58" t="inlineStr">
         <is>
           <t>pivoting example</t>
         </is>
       </c>
+      <c r="V58" t="n">
+        <v>6</v>
+      </c>
       <c r="W58" t="n">
-        <v>14.295</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -7759,21 +8445,27 @@
       </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1744</v>
       </c>
       <c r="T59" t="n">
-        <v>1744</v>
-      </c>
-      <c r="U59" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="V59" t="inlineStr"/>
+        <v>31.72</v>
+      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="n">
+        <v>6</v>
+      </c>
       <c r="W59" t="n">
-        <v>14.72</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -7801,7 +8493,11 @@
           <t>DT_STRATA represents date. DOW is in the type of Text. PCT_HOURLY_0100 and so on are hourly load values for the strata. PCT_HOURLY_2500 should be ignored.</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Use the WITH clause creates a Common Table Expression (CTE) named HourlyData. This CTE reshapes the original table Source table which has separate columns for each hourly value (PCY_HOURLY_0100 to PCT_HOURLY_2400) into a more normalized format where each row represents a unique hour for a given day.Then the data from the HourlyData CTE is further transformed and inserted into the Target table. Aggregate  rows and pick the maximum value for each hour.Remind to GROUP BY Hour and ORDER BY Hour.PCT_HOURLY_ in source should be transformed to Hour in target.</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t xml:space="preserve">1/1/16        H        .001222017108240        .001274017836250        .001131015834222        .001222017108240        .001222017108240        .001261017654247        .001144016016224        .001170016380229        .001170016380229        .001209016926237        .001183016562232        .001235017290242        .001157016198227        .001001014014196        .001014014196199        .001144016016224        .001209016926237        .001547021658303        .001560021840306        .001534021476301        .001573022022308        .001573022022308        .001326018564260        .001170016380229        .000000000000000
@@ -7812,28 +8508,48 @@
 </t>
         </is>
       </c>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>DROP TABLE IF EXISTS Target8_4_Valid;   CREATE TABLE Target8_4_Valid (     Hour TEXT,     January NUMERIC,     February NUMERIC,     March NUMERIC,     April NUMERIC,     May NUMERIC,     June NUMERIC,     July NUMERIC,     August NUMERIC,     September NUMERIC,     October NUMERIC,     November NUMERIC,     December NUMERIC );   WITH HourlyData AS (     SELECT         DT_STRATA,         DOW,         '01' AS Hour, PCT_HOURLY_0100 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '02' AS Hour, PCT_HOURLY_0200 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '03' AS Hour, PCT_HOURLY_0300 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '04' AS Hour, PCT_HOURLY_0400 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '05' AS Hour, PCT_HOURLY_0500 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '06' AS Hour, PCT_HOURLY_0600 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '07' AS Hour, PCT_HOURLY_0700 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '08' AS Hour, PCT_HOURLY_0800 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '09' AS Hour, PCT_HOURLY_0900 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '10' AS Hour, PCT_HOURLY_1000 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '11' AS Hour, PCT_HOURLY_1100 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '12' AS Hour, PCT_HOURLY_1200 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '13' AS Hour, PCT_HOURLY_1300 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '14' AS Hour, PCT_HOURLY_1400 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '15' AS Hour, PCT_HOURLY_1500 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '16' AS Hour, PCT_HOURLY_1600 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '17' AS Hour, PCT_HOURLY_1700 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '18' AS Hour, PCT_HOURLY_1800 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '19' AS Hour, PCT_HOURLY_1900 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '20' AS Hour, PCT_HOURLY_2000 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '21' AS Hour, PCT_HOURLY_2100 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '22' AS Hour, PCT_HOURLY_2200 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '23' AS Hour, PCT_HOURLY_2300 AS Value FROM Source8_4     UNION ALL SELECT         DT_STRATA,         DOW,         '24' AS Hour, PCT_HOURLY_2400 AS Value FROM Source8_4 ) INSERT INTO Target8_4_Valid (Hour, January, February, March, April, May, June, July, August, September, October, November, December) SELECT     Hour,     MAX(CASE WHEN EXTRACT(MONTH FROM DT_STRATA) = 1 THEN Value END) AS January,     MAX(CASE WHEN EXTRACT(MONTH FROM DT_STRATA) = 2 THEN Value END) AS February,     MAX(CASE WHEN EXTRACT(MONTH FROM DT_STRATA) = 3 THEN Value END) AS March,     MAX(CASE WHEN EXTRACT(MONTH FROM DT_STRATA) = 4 THEN Value END) AS April,     MAX(CASE WHEN EXTRACT(MONTH FROM DT_STRATA) = 5 THEN Value END) AS May,     MAX(CASE WHEN EXTRACT(MONTH FROM DT_STRATA) = 6 THEN Value END) AS June,     MAX(CASE WHEN EXTRACT(MONTH FROM DT_STRATA) = 7 THEN Value END) AS July,     MAX(CASE WHEN EXTRACT(MONTH FROM DT_STRATA) = 8 THEN Value END) AS August,     MAX(CASE WHEN EXTRACT(MONTH FROM DT_STRATA) = 9 THEN Value END) AS September,     MAX(CASE WHEN EXTRACT(MONTH FROM DT_STRATA) = 10 THEN Value END) AS October,     MAX(CASE WHEN EXTRACT(MONTH FROM DT_STRATA) = 11 THEN Value END) AS November,     MAX(CASE WHEN EXTRACT(MONTH FROM DT_STRATA) = 12 THEN Value END) AS December FROM HourlyData GROUP BY Hour ORDER BY Hour;   SELECT * FROM Source8_4;</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>4278</v>
       </c>
       <c r="T60" t="n">
-        <v>3</v>
-      </c>
-      <c r="U60" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="V60" t="inlineStr"/>
+        <v>48.39</v>
+      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="n">
+        <v>6</v>
+      </c>
       <c r="W60" t="n">
-        <v>0.015</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -7896,21 +8612,27 @@
       </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>2881</v>
       </c>
       <c r="T61" t="n">
-        <v>3</v>
-      </c>
-      <c r="U61" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="V61" t="inlineStr"/>
+        <v>44.405</v>
+      </c>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="n">
+        <v>6</v>
+      </c>
       <c r="W61" t="n">
-        <v>0.015</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -7938,7 +8660,11 @@
           <t>DSL should be ignored.</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use the WITH clause creates a Common Table Expression (CTE) named HourlyData. This CTE reshapes the original table Source table which has separate columns for each hourly value (1:00 AM to 12:00 PM) into a more normalized format where each row represents a unique hour for a given day.Then the data from the HourlyData CTE is further transformed and inserted into the Target table. Aggregate  rows and pick the maximum value for each hour.Remind to GROUP BY Hour and ORDER BY Hour.Hour in source should be transformed to Hour in target,like 5:00 AM to 5. </t>
+        </is>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>1/1/14        0.401886        0.047515        0.142297        0.105676        0.086158        0.049559        0.252565        0.079152        0.268245        0.323391        0.579675        0.373929        0.395818        0.346526        0.168488        0.23271        0.198111        0.171766        0.320391        0.175918        0.108393        0.147213        0.300779        1.149117        0
@@ -7948,28 +8674,48 @@
 1/5/14        0.142936        0.196323        0.02642        0.059709        0.094588        0.074242        0.286263        0.190722        0.206605        0.105219        0.322878        0.374162        0.569126        0.3059        0.187928        0.288603        0.252635        0.331517        0.660367        0.305417        0.19502        0.236785        0.067532        0.445997        0</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>DROP TABLE IF EXISTS Target8_6_Valid;   CREATE TABLE Target8_6_Valid (     Hour TEXT,     January FLOAT,     February FLOAT,     March FLOAT,     April FLOAT,     May FLOAT,     June FLOAT,     July FLOAT,     August FLOAT,     September FLOAT,     October FLOAT,     November FLOAT,     December FLOAT );   WITH HourlyData AS (     SELECT         Date,         '1' AS Hour, "1:00 AM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '2' AS Hour, "2:00 AM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '3' AS Hour, "3:00 AM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '4' AS Hour, "4:00 AM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '5' AS Hour, "5:00 AM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '6' AS Hour, "6:00 AM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '7' AS Hour, "7:00 AM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '8' AS Hour, "8:00 AM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '9' AS Hour, "9:00 AM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '10' AS Hour, "10:00 AM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '11' AS Hour, "11:00 AM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '12' AS Hour, "12:00 AM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '13' AS Hour, "1:00 PM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '14' AS Hour, "2:00 PM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '15' AS Hour, "3:00 PM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '16' AS Hour, "4:00 PM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '17' AS Hour, "5:00 PM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '18' AS Hour, "6:00 PM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '19' AS Hour, "7:00 PM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '20' AS Hour, "8:00 PM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '21' AS Hour, "9:00 PM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '22' AS Hour, "10:00 PM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '23' AS Hour, "11:00 PM" AS Value FROM Source8_6 UNION ALL         SELECT Date, '24' AS Hour, "12:00 PM" AS Value FROM Source8_6 ) INSERT INTO Target8_6_Valid (Hour, January, February, March, April, May, June, July, August, September, October, November, December) SELECT     Hour,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 1 THEN Value END) AS January,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 2 THEN Value END) AS February,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 3 THEN Value END) AS March,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 4 THEN Value END) AS April,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 5 THEN Value END) AS May,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 6 THEN Value END) AS June,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 7 THEN Value END) AS July,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 8 THEN Value END) AS August,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 9 THEN Value END) AS September,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 10 THEN Value END) AS October,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 11 THEN Value END) AS November,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 12 THEN Value END) AS December FROM HourlyData GROUP BY Hour ORDER BY Hour;</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>3312</v>
       </c>
       <c r="T62" t="n">
-        <v>3</v>
-      </c>
-      <c r="U62" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="V62" t="inlineStr"/>
+        <v>44.56</v>
+      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="n">
+        <v>6</v>
+      </c>
       <c r="W62" t="n">
-        <v>0.015</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -7993,7 +8739,11 @@
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Use the WITH clause creates a Common Table Expression (CTE) named HourlyData. This CTE reshapes the original table Source table which has separate columns for each hourly value (1 to 24) into a more normalized format where each row represents a unique hour for a given day.Then the data from the HourlyData CTE is further transformed and inserted into the Target table. Aggregate  rows and pick the maximum value for each hour.Remind to GROUP BY Hour and ORDER BY Hour.</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t xml:space="preserve">1/1/13        RESIDENT         0.89          0.80          0.74          0.72          0.71          0.72          0.76          0.87          1.02          1.13          1.16          1.16          1.14          1.11          1.08          1.10          1.26          1.40          1.39          1.34          1.26          1.14          1.02          0.90 
@@ -8003,28 +8753,48 @@
 1/5/13        RESIDENT         0.82          0.76          0.73          0.71          0.71          0.75          0.83          0.95          1.01          1.04          1.02          1.01          1.00          0.98          0.99          1.04          1.18          1.34          1.35          1.28          1.22          1.15          1.03          0.91 </t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DROP TABLE IF EXISTS Target8_7_Valid;  CREATE TABLE Target8_7_Valid (     Hour TEXT,     January NUMERIC,     February NUMERIC,     March NUMERIC,     April NUMERIC,     May NUMERIC,     June NUMERIC,     July NUMERIC,     August NUMERIC,     September NUMERIC,     October NUMERIC,     November NUMERIC,     December NUMERIC );   WITH HourlyData AS (     SELECT         Date,         Profile,         '1' AS Hour,         "1" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '2' AS Hour,         "2" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '3' AS Hour,         "3" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '4' AS Hour,         "4" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '5' AS Hour,         "5" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '6' AS Hour,         "6" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '7' AS Hour,         "7" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '8' AS Hour,         "8" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '9' AS Hour,         "9" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '10' AS Hour,         "10" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '11' AS Hour,         "11" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '12' AS Hour,         "12" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '13' AS Hour,         "13" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '14' AS Hour,         "14" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '15' AS Hour,         "15" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '16' AS Hour,         "16" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '17' AS Hour,         "17" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '18' AS Hour,         "18" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '19' AS Hour,         "19" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '20' AS Hour,         "20" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '21' AS Hour,         "21" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '22' AS Hour,         "22" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '23' AS Hour,         "23" AS Value     FROM Source8_7     UNION ALL     SELECT         Date,         Profile,         '24' AS Hour,         "24" AS Value     FROM Source8_7 ) INSERT INTO Target8_7_Valid (Hour, January, February, March, April, May, June, July, August, September, October, November, December) SELECT     Hour,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 1 THEN Value END) AS January,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 2 THEN Value END) AS February,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 3 THEN Value END) AS March,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 4 THEN Value END) AS April,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 5 THEN Value END) AS May,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 6 THEN Value END) AS June,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 7 THEN Value END) AS July,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 8 THEN Value END) AS August,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 9 THEN Value END) AS September,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 10 THEN Value END) AS October,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 11 THEN Value END) AS November,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 12 THEN Value END) AS December FROM HourlyData GROUP BY Hour ORDER BY Hour; </t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>4265</v>
       </c>
       <c r="T63" t="n">
-        <v>3</v>
-      </c>
-      <c r="U63" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="V63" t="inlineStr"/>
+        <v>49.325</v>
+      </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="n">
+        <v>6</v>
+      </c>
       <c r="W63" t="n">
-        <v>0.015</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -8048,7 +8818,11 @@
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use the WITH clause creates a Common Table Expression (CTE) named HourlyData. This CTE reshapes the original table Source table which has separate columns for each hourly value (Hour 1 to Hour 24) into a more normalized format where each row represents a unique hour for a given day.Then the data from the HourlyData CTE is further transformed and inserted into the Target table. Aggregate  rows and pick the maximum value for each hour.Remind to GROUP BY Hour and ORDER BY Hour.Hour in source should be transformed to Hour in target,like Hour 24 to 24. </t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>1/1/15        0.000239866        0.000239866        0.000239866        0.000239866        0.000239866        0.000239866        0.000239866        0.000119933        0.000000001        0.000000001        0.000000001        0.000000001        0.000000001        0.000000001        0.000000001        0.000000001        0.000119933        0.000239866        0.000239866        0.000239866        0.000239866        0.000239866        0.000239866        0.000239866
@@ -8058,28 +8832,48 @@
 1/5/15        0.000239866        0.000239866        0.000239866        0.000239866        0.000239866        0.000239866        0.000239866        0.000119933        0.000000001        0.000000001        0.000000001        0.000000001        0.000000001        0.000000001        0.000000001        0.000000001        0.000119933        0.000239866        0.000239866        0.000239866        0.000239866        0.000239866        0.000239866        0.000239866</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>DROP TABLE IF EXISTS Target8_8_Valid;   CREATE TABLE Target8_8_Valid (     Hour TEXT,     January NUMERIC,     February NUMERIC,     March NUMERIC,     April NUMERIC,     May NUMERIC,     June NUMERIC,     July NUMERIC,     August NUMERIC,     September NUMERIC,     October NUMERIC,     November NUMERIC,     December NUMERIC );   WITH HourlyData AS (     SELECT         date,         '1' AS Hour,         "Hour 1" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '2' AS Hour,         "Hour 2" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '3' AS Hour,         "Hour 3" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '4' AS Hour,         "Hour 4" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '5' AS Hour,         "Hour 5" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '6' AS Hour,         "Hour 6" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '7' AS Hour,         "Hour 7" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '8' AS Hour,         "Hour 8" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '9' AS Hour,         "Hour 9" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '10' AS Hour,         "Hour 10" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '11' AS Hour,         "Hour 11" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '12' AS Hour,         "Hour 12" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '13' AS Hour,         "Hour 13" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '14' AS Hour,         "Hour 14" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '15' AS Hour,         "Hour 15" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '16' AS Hour,         "Hour 16" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '17' AS Hour,         "Hour 17" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '18' AS Hour,         "Hour 18" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '19' AS Hour,         "Hour 19" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '20' AS Hour,         "Hour 20" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '21' AS Hour,         "Hour 21" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '22' AS Hour,         "Hour 22" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '23' AS Hour,         "Hour 23" AS Value     FROM Source8_8     UNION ALL     SELECT         date,         '24' AS Hour,         "Hour 24" AS Value     FROM Source8_8 ) INSERT INTO Target8_8_Valid (Hour, January, February, March, April, May, June, July, August, September, October, November, December) SELECT     Hour,     MAX(CASE WHEN EXTRACT(MONTH FROM date) = 1 THEN Value END) AS January,     MAX(CASE WHEN EXTRACT(MONTH FROM date) = 2 THEN Value END) AS February,     MAX(CASE WHEN EXTRACT(MONTH FROM date) = 3 THEN Value END) AS March,     MAX(CASE WHEN EXTRACT(MONTH FROM date) = 4 THEN Value END) AS April,     MAX(CASE WHEN EXTRACT(MONTH FROM date) = 5 THEN Value END) AS May,     MAX(CASE WHEN EXTRACT(MONTH FROM date) = 6 THEN Value END) AS June,     MAX(CASE WHEN EXTRACT(MONTH FROM date) = 7 THEN Value END) AS July,     MAX(CASE WHEN EXTRACT(MONTH FROM date) = 8 THEN Value END) AS August,     MAX(CASE WHEN EXTRACT(MONTH FROM date) = 9 THEN Value END) AS September,     MAX(CASE WHEN EXTRACT(MONTH FROM date) = 10 THEN Value END) AS October,     MAX(CASE WHEN EXTRACT(MONTH FROM date) = 11 THEN Value END) AS November,     MAX(CASE WHEN EXTRACT(MONTH FROM date) = 12 THEN Value END) AS December FROM HourlyData GROUP BY Hour ORDER BY Hour;   SELECT * FROM Source8_8;</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>4004</v>
       </c>
       <c r="T64" t="n">
-        <v>3</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="V64" t="inlineStr"/>
+        <v>48.02</v>
+      </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="n">
+        <v>6</v>
+      </c>
       <c r="W64" t="n">
-        <v>0.015</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X64" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -8103,7 +8897,11 @@
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use the WITH clause creates a Common Table Expression (CTE) named HourlyData. This CTE reshapes the original table Source table which has separate columns for each hourly value (Hr1 to Hr24) into a more normalized format where each row represents a unique hour for a given day.Then the data from the HourlyData CTE is further transformed and inserted into the Target table. Aggregate  rows and pick the maximum value for each hour.Remind to GROUP BY Hour and ORDER BY Hour.Hour in source should be transformed to Hour in target,like Hr10 to 10. </t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t xml:space="preserve">Boston Edison        G1        A9/B1        1/1/14        0.91880        0.90204        0.90953        0.89743        0.90784        0.91352        0.90426        0.84936        0.83371        0.88786        0.86311        0.93132        0.91851        0.84487        0.87496        0.84075        0.98534        1.02454        0.98755        0.99935        0.98452        0.96688        0.95505        0.91513
@@ -8114,28 +8912,48 @@
 </t>
         </is>
       </c>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DROP TABLE IF EXISTS Target8_9_Valid;   CREATE TABLE Target8_9_Valid (     Hour TEXT,     January NUMERIC,     February NUMERIC,     March NUMERIC,     April NUMERIC,     May NUMERIC,     June NUMERIC,     July NUMERIC,     August NUMERIC,     September NUMERIC,     October NUMERIC,     November NUMERIC,     December NUMERIC );   WITH HourlyData AS (     SELECT         '1' AS Hour,         Date,         Hr1 AS Value     FROM Source8_9     UNION ALL     SELECT         '2' AS Hour,         Date,         Hr2 AS Value     FROM Source8_9     UNION ALL     SELECT         '3' AS Hour,         Date,         Hr3 AS Value     FROM Source8_9     UNION ALL     SELECT         '4' AS Hour,         Date,         Hr4 AS Value     FROM Source8_9     UNION ALL     SELECT         '5' AS Hour,         Date,         Hr5 AS Value     FROM Source8_9     UNION ALL     SELECT         '6' AS Hour,         Date,         Hr6 AS Value     FROM Source8_9     UNION ALL     SELECT         '7' AS Hour,         Date,         Hr7 AS Value     FROM Source8_9     UNION ALL     SELECT         '8' AS Hour,         Date,         Hr8 AS Value     FROM Source8_9     UNION ALL     SELECT         '9' AS Hour,         Date,         Hr9 AS Value     FROM Source8_9     UNION ALL     SELECT         '10' AS Hour,         Date,         Hr10 AS Value     FROM Source8_9     UNION ALL     SELECT         '11' AS Hour,         Date,         Hr11 AS Value     FROM Source8_9     UNION ALL     SELECT         '12' AS Hour,         Date,         Hr12 AS Value     FROM Source8_9     UNION ALL     SELECT         '13' AS Hour,         Date,         Hr13 AS Value     FROM Source8_9     UNION ALL     SELECT         '14' AS Hour,         Date,         Hr14 AS Value     FROM Source8_9     UNION ALL     SELECT         '15' AS Hour,         Date,         Hr15 AS Value     FROM Source8_9     UNION ALL     SELECT         '16' AS Hour,         Date,         Hr16 AS Value     FROM Source8_9     UNION ALL     SELECT         '17' AS Hour,         Date,         Hr17 AS Value     FROM Source8_9     UNION ALL     SELECT         '18' AS Hour,         Date,         Hr18 AS Value     FROM Source8_9     UNION ALL     SELECT         '19' AS Hour,         Date,         Hr19 AS Value     FROM Source8_9     UNION ALL     SELECT         '20' AS Hour,         Date,         Hr20 AS Value     FROM Source8_9     UNION ALL     SELECT         '21' AS Hour,         Date,         Hr21 AS Value     FROM Source8_9     UNION ALL     SELECT         '22' AS Hour,         Date,         Hr22 AS Value     FROM Source8_9     UNION ALL     SELECT         '23' AS Hour,         Date,         Hr23 AS Value     FROM Source8_9     UNION ALL     SELECT         '24' AS Hour,         Date,         Hr24 AS Value     FROM Source8_9 ) INSERT INTO Target8_9_Valid (Hour, January, February, March, April, May, June, July, August, September, October, November, December) SELECT     Hour,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 1 THEN Value END) AS January,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 2 THEN Value END) AS February,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 3 THEN Value END) AS March,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 4 THEN Value END) AS April,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 5 THEN Value END) AS May,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 6 THEN Value END) AS June,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 7 THEN Value END) AS July,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 8 THEN Value END) AS August,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 9 THEN Value END) AS September,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 10 THEN Value END) AS October,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 11 THEN Value END) AS November,     MAX(CASE WHEN EXTRACT(MONTH FROM Date) = 12 THEN Value END) AS December FROM HourlyData GROUP BY Hour ORDER BY Hour::INTEGER;  </t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>3868</v>
       </c>
       <c r="T65" t="n">
-        <v>3</v>
-      </c>
-      <c r="U65" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="V65" t="inlineStr"/>
+        <v>48.34</v>
+      </c>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="n">
+        <v>6</v>
+      </c>
       <c r="W65" t="n">
-        <v>0.015</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -8163,7 +8981,11 @@
           <t xml:space="preserve">Segment describes the segment of the building. Date contains both  the day of week in abbreviation format and the date in the form of mm/dd/yyyy.  </t>
         </is>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use the WITH clause creates a Common Table Expression (CTE) named HourlyData. This CTE reshapes the original table Source table which has separate columns for each hourly value (1:00 to 12:00) into a more normalized format where each row represents a unique hour for a given day.Then the data from the HourlyData CTE is further transformed and inserted into the Target table. Aggregate  rows and pick the maximum value for each hour.Remind to GROUP BY Hour and ORDER BY Hour.Hour in source should be transformed to Hour in target,like 24:00:00 to 24. </t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>RS6        Wed 01/01/2003        2.188        2.114        2.013        1.944        2.064        2.119        2.019        2.407        2.59        2.793        3.098        3.33        3.556        3.49        3.311        3.322        3.262        3.407        3.302        3.64        3.537        3.299        3.177        2.753
@@ -8173,28 +8995,48 @@
 RS6        Sun 01/05/2003        2.464        2.317        2.298        2.209        2.365        2.435        2.607        2.786        3.029        3.173        3.049        3.188        3.11        2.895        3.033        2.841        3.069        3.431        3.554        3.364        3.398        3.334        2.813        2.585</t>
         </is>
       </c>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>DROP TABLE IF EXISTS Target8_10_Valid;   CREATE TABLE Target8_10_Valid (     Hour TEXT,     January FLOAT,     February FLOAT,     March FLOAT,     April FLOAT,     May FLOAT,     June FLOAT,     July FLOAT,     August FLOAT,     September FLOAT,     October FLOAT,     November FLOAT,     December FLOAT );   WITH HourlyData AS (     SELECT         Segment,         Date,         '1' AS Hour,         "1:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '2' AS Hour,         "2:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '3' AS Hour,         "3:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '4' AS Hour,         "4:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '5' AS Hour,         "5:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '6' AS Hour,         "6:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '7' AS Hour,         "7:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '8' AS Hour,         "8:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '9' AS Hour,         "9:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '10' AS Hour,         "10:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '11' AS Hour,         "11:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '12' AS Hour,         "12:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '13' AS Hour,         "13:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '14' AS Hour,         "14:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '15' AS Hour,         "15:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '16' AS Hour,         "16:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '17' AS Hour,         "17:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '18' AS Hour,         "18:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '19' AS Hour,         "19:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '20' AS Hour,         "20:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '21' AS Hour,         "21:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '22' AS Hour,         "22:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '23' AS Hour,         "23:00" AS Value     FROM Source8_10     UNION ALL     SELECT         Segment,         Date,         '24' AS Hour,         "24:00:00" AS Value     FROM Source8_10 ) INSERT INTO Target8_10_Valid (Hour, January, February, March, April, May, June, July, August, September, October, November, December) SELECT     Hour,     MAX(CASE WHEN EXTRACT(MONTH FROM TO_DATE(Date, 'Dy MM/DD/YYYY')) = 1 THEN Value END) AS January,     MAX(CASE WHEN EXTRACT(MONTH FROM TO_DATE(Date, 'Dy MM/DD/YYYY')) = 2 THEN Value END) AS February,     MAX(CASE WHEN EXTRACT(MONTH FROM TO_DATE(Date, 'Dy MM/DD/YYYY')) = 3 THEN Value END) AS March,     MAX(CASE WHEN EXTRACT(MONTH FROM TO_DATE(Date, 'Dy MM/DD/YYYY')) = 4 THEN Value END) AS April,     MAX(CASE WHEN EXTRACT(MONTH FROM TO_DATE(Date, 'Dy MM/DD/YYYY')) = 5 THEN Value END) AS May,     MAX(CASE WHEN EXTRACT(MONTH FROM TO_DATE(Date, 'Dy MM/DD/YYYY')) = 6 THEN Value END) AS June,     MAX(CASE WHEN EXTRACT(MONTH FROM TO_DATE(Date, 'Dy MM/DD/YYYY')) = 7 THEN Value END) AS July,     MAX(CASE WHEN EXTRACT(MONTH FROM TO_DATE(Date, 'Dy MM/DD/YYYY')) = 8 THEN Value END) AS August,     MAX(CASE WHEN EXTRACT(MONTH FROM TO_DATE(Date, 'Dy MM/DD/YYYY')) = 9 THEN Value END) AS September,     MAX(CASE WHEN EXTRACT(MONTH FROM TO_DATE(Date, 'Dy MM/DD/YYYY')) = 10 THEN Value END) AS October,     MAX(CASE WHEN EXTRACT(MONTH FROM TO_DATE(Date, 'Dy MM/DD/YYYY')) = 11 THEN Value END) AS November,     MAX(CASE WHEN EXTRACT(MONTH FROM TO_DATE(Date, 'Dy MM/DD/YYYY')) = 12 THEN Value END) AS December FROM HourlyData GROUP BY Hour ORDER BY Hour;   SELECT * FROM Source8_10;</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>4683</v>
       </c>
       <c r="T66" t="n">
-        <v>3</v>
-      </c>
-      <c r="U66" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="V66" t="inlineStr"/>
+        <v>51.415</v>
+      </c>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="n">
+        <v>6</v>
+      </c>
       <c r="W66" t="n">
-        <v>0.015</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8277,24 +9119,35 @@
       </c>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="n">
+        <v>14</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1718</v>
+      </c>
+      <c r="T67" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>First three columns would have null values</t>
+        </is>
+      </c>
+      <c r="V67" t="n">
+        <v>6</v>
+      </c>
+      <c r="W67" t="n">
+        <v>6</v>
+      </c>
+      <c r="X67" t="n">
         <v>2</v>
       </c>
-      <c r="S67" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" t="n">
-        <v>1718</v>
-      </c>
-      <c r="U67" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>First three columns would have null values</t>
-        </is>
-      </c>
-      <c r="W67" t="n">
-        <v>10.59</v>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>ERROR: INSERT has more target columns than expressionsLINE 37: ...3022022308, 0.001326018564260, 0.001170016380229, 0.00000000...
+                                                              ^</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -8358,20 +9211,30 @@
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="T68" t="n">
-        <v>1149</v>
-      </c>
-      <c r="U68" t="n">
-        <v>9.745000000000001</v>
-      </c>
-      <c r="V68" t="inlineStr"/>
+        <v>19.745</v>
+      </c>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="n">
+        <v>6</v>
+      </c>
       <c r="W68" t="n">
-        <v>9.745000000000001</v>
+        <v>6</v>
+      </c>
+      <c r="X68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>Error:：value too long for type character varying ()</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -8488,20 +9351,30 @@
       </c>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>2957</v>
       </c>
       <c r="T69" t="n">
-        <v>2957</v>
-      </c>
-      <c r="U69" t="n">
-        <v>21.785</v>
-      </c>
-      <c r="V69" t="inlineStr"/>
+        <v>39.785</v>
+      </c>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="n">
+        <v>6</v>
+      </c>
       <c r="W69" t="n">
-        <v>21.785</v>
+        <v>6</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>ERROR: date/time field value out of range</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -8618,21 +9491,27 @@
       </c>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>2927</v>
       </c>
       <c r="T70" t="n">
-        <v>2927</v>
-      </c>
-      <c r="U70" t="n">
-        <v>21.635</v>
-      </c>
-      <c r="V70" t="inlineStr"/>
+        <v>39.635</v>
+      </c>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="n">
+        <v>6</v>
+      </c>
       <c r="W70" t="n">
-        <v>21.635</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -8748,21 +9627,27 @@
       </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>2999</v>
       </c>
       <c r="T71" t="n">
-        <v>2999</v>
-      </c>
-      <c r="U71" t="n">
-        <v>21.995</v>
-      </c>
-      <c r="V71" t="inlineStr"/>
+        <v>39.995</v>
+      </c>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="n">
+        <v>6</v>
+      </c>
       <c r="W71" t="n">
-        <v>21.995</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -8858,21 +9743,27 @@
       </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>1171</v>
       </c>
       <c r="T72" t="n">
-        <v>1171</v>
-      </c>
-      <c r="U72" t="n">
-        <v>6.855</v>
-      </c>
-      <c r="V72" t="inlineStr"/>
+        <v>17.855</v>
+      </c>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="n">
+        <v>6</v>
+      </c>
       <c r="W72" t="n">
-        <v>6.855</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -8963,21 +9854,27 @@
       </c>
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>1031</v>
       </c>
       <c r="T73" t="n">
-        <v>1031</v>
-      </c>
-      <c r="U73" t="n">
-        <v>6.155</v>
-      </c>
-      <c r="V73" t="inlineStr"/>
+        <v>17.155</v>
+      </c>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="n">
+        <v>1</v>
+      </c>
       <c r="W73" t="n">
-        <v>6.155</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -9068,21 +9965,27 @@
       </c>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="T74" t="n">
-        <v>1150</v>
-      </c>
-      <c r="U74" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="V74" t="inlineStr"/>
+        <v>18.75</v>
+      </c>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="n">
+        <v>1</v>
+      </c>
       <c r="W74" t="n">
-        <v>6.75</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -9172,21 +10075,27 @@
       </c>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="T75" t="n">
-        <v>1101</v>
-      </c>
-      <c r="U75" t="n">
-        <v>6.505</v>
-      </c>
-      <c r="V75" t="inlineStr"/>
+        <v>17.505</v>
+      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="n">
+        <v>1</v>
+      </c>
       <c r="W75" t="n">
-        <v>6.505</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -9284,21 +10193,27 @@
       </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>1110</v>
       </c>
       <c r="T76" t="n">
-        <v>1110</v>
-      </c>
-      <c r="U76" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="V76" t="inlineStr"/>
+        <v>17.55</v>
+      </c>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="n">
+        <v>6</v>
+      </c>
       <c r="W76" t="n">
-        <v>6.55</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X76" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9368,8 +10283,10 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
-      <c r="N77" t="n">
-        <v>0.96</v>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>0.96/1</t>
+        </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -9383,20 +10300,30 @@
       </c>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>1619</v>
       </c>
       <c r="T77" t="n">
-        <v>1619</v>
-      </c>
-      <c r="U77" t="n">
-        <v>10.095</v>
-      </c>
-      <c r="V77" t="inlineStr"/>
+        <v>21.095</v>
+      </c>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="n">
+        <v>6</v>
+      </c>
       <c r="W77" t="n">
-        <v>10.095</v>
+        <v>6</v>
+      </c>
+      <c r="X77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>Error: The length of each member in the VALUES list must be the same LINE 39: ('0001', 'RC301 Strata 1', '1/3/16', '1', .001157016198227, ...</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -9458,21 +10385,27 @@
       </c>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>1057</v>
       </c>
       <c r="T78" t="n">
-        <v>1057</v>
-      </c>
-      <c r="U78" t="n">
-        <v>7.285</v>
-      </c>
-      <c r="V78" t="inlineStr"/>
+        <v>19.285</v>
+      </c>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="n">
+        <v>6</v>
+      </c>
       <c r="W78" t="n">
-        <v>7.285</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -9563,21 +10496,27 @@
       </c>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>1111</v>
       </c>
       <c r="T79" t="n">
-        <v>1111</v>
-      </c>
-      <c r="U79" t="n">
-        <v>6.555</v>
-      </c>
-      <c r="V79" t="inlineStr"/>
+        <v>17.555</v>
+      </c>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="n">
+        <v>1</v>
+      </c>
       <c r="W79" t="n">
-        <v>6.555</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -9673,21 +10612,27 @@
       </c>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>1130</v>
       </c>
       <c r="T80" t="n">
-        <v>1130</v>
-      </c>
-      <c r="U80" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="V80" t="inlineStr"/>
+        <v>17.65</v>
+      </c>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="n">
+        <v>6</v>
+      </c>
       <c r="W80" t="n">
-        <v>6.65</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -9754,21 +10699,27 @@
       </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>1035</v>
       </c>
       <c r="T81" t="n">
-        <v>1035</v>
-      </c>
-      <c r="U81" t="n">
-        <v>7.175</v>
-      </c>
-      <c r="V81" t="inlineStr"/>
+        <v>17.175</v>
+      </c>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="n">
+        <v>6</v>
+      </c>
       <c r="W81" t="n">
-        <v>7.175</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X81" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -9859,21 +10810,27 @@
       </c>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S82" t="n">
-        <v>0</v>
+        <v>1111</v>
       </c>
       <c r="T82" t="n">
-        <v>1111</v>
-      </c>
-      <c r="U82" t="n">
-        <v>6.555</v>
-      </c>
-      <c r="V82" t="inlineStr"/>
+        <v>18.555</v>
+      </c>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="n">
+        <v>1</v>
+      </c>
       <c r="W82" t="n">
-        <v>6.555</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="X82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -9967,21 +10924,27 @@
       </c>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>1070</v>
       </c>
       <c r="T83" t="n">
-        <v>1070</v>
-      </c>
-      <c r="U83" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="V83" t="inlineStr"/>
+        <v>17.35</v>
+      </c>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="n">
+        <v>6</v>
+      </c>
       <c r="W83" t="n">
-        <v>6.35</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -10099,20 +11062,30 @@
       </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>2961</v>
       </c>
       <c r="T84" t="n">
-        <v>2961</v>
-      </c>
-      <c r="U84" t="n">
-        <v>21.805</v>
-      </c>
-      <c r="V84" t="inlineStr"/>
+        <v>39.805</v>
+      </c>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="n">
+        <v>6</v>
+      </c>
       <c r="W84" t="n">
-        <v>21.805</v>
+        <v>6</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>ERROR: date/time field value out of range</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -10231,21 +11204,27 @@
       </c>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>2937</v>
       </c>
       <c r="T85" t="n">
-        <v>2937</v>
-      </c>
-      <c r="U85" t="n">
-        <v>21.685</v>
-      </c>
-      <c r="V85" t="inlineStr"/>
+        <v>39.685</v>
+      </c>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="n">
+        <v>6</v>
+      </c>
       <c r="W85" t="n">
-        <v>21.685</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -10363,20 +11342,30 @@
       </c>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>3106</v>
       </c>
       <c r="T86" t="n">
-        <v>3106</v>
-      </c>
-      <c r="U86" t="n">
-        <v>22.53</v>
-      </c>
-      <c r="V86" t="inlineStr"/>
+        <v>40.53</v>
+      </c>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="n">
+        <v>6</v>
+      </c>
       <c r="W86" t="n">
-        <v>22.53</v>
+        <v>6</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>ERROR: date/time field value out of range</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -10488,21 +11477,27 @@
       </c>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>1883</v>
       </c>
       <c r="T87" t="n">
-        <v>1883</v>
-      </c>
-      <c r="U87" t="n">
-        <v>10.415</v>
-      </c>
-      <c r="V87" t="inlineStr"/>
+        <v>22.415</v>
+      </c>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="n">
+        <v>6</v>
+      </c>
       <c r="W87" t="n">
-        <v>10.415</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -10594,21 +11589,27 @@
       </c>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>1767</v>
       </c>
       <c r="T88" t="n">
-        <v>1767</v>
-      </c>
-      <c r="U88" t="n">
-        <v>9.835000000000001</v>
-      </c>
-      <c r="V88" t="inlineStr"/>
+        <v>20.835</v>
+      </c>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="n">
+        <v>6</v>
+      </c>
       <c r="W88" t="n">
-        <v>9.835000000000001</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -10700,24 +11701,35 @@
       </c>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="n">
+        <v>16</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1488</v>
+      </c>
+      <c r="T89" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>If the sample values are all constant like 32767, ChatGPT insert statement will be different with the one that we requested. One attribute value will get missing. Changing the sample values to be different will fix the problem</t>
+        </is>
+      </c>
+      <c r="V89" t="n">
+        <v>6</v>
+      </c>
+      <c r="W89" t="n">
+        <v>6</v>
+      </c>
+      <c r="X89" t="n">
         <v>2</v>
       </c>
-      <c r="S89" t="n">
-        <v>0</v>
-      </c>
-      <c r="T89" t="n">
-        <v>1488</v>
-      </c>
-      <c r="U89" t="n">
-        <v>9.440000000000001</v>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>If the sample values are all constant like 32767, ChatGPT insert statement will be different with the one that we requested. One attribute value will get missing. Changing the sample values to be different will fix the problem</t>
-        </is>
-      </c>
-      <c r="W89" t="n">
-        <v>9.440000000000001</v>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>ERROR: date/time field value out of range: "8/22/12 16:00"
+LINE 41:     (36, '8/22/12 16:00', 322.0, 323.0, 324.0, 325.0, 326.0,...</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -10848,21 +11860,27 @@
       </c>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>1966</v>
       </c>
       <c r="T90" t="n">
-        <v>1966</v>
-      </c>
-      <c r="U90" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="V90" t="inlineStr"/>
+        <v>25.83</v>
+      </c>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="n">
+        <v>6</v>
+      </c>
       <c r="W90" t="n">
-        <v>11.83</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -10950,21 +11968,27 @@
       </c>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="S91" t="n">
-        <v>0</v>
+        <v>1830</v>
       </c>
       <c r="T91" t="n">
-        <v>1830</v>
-      </c>
-      <c r="U91" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="V91" t="inlineStr"/>
+        <v>25.15</v>
+      </c>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="n">
+        <v>6</v>
+      </c>
       <c r="W91" t="n">
-        <v>11.15</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -11057,20 +12081,31 @@
       </c>
       <c r="Q92" t="inlineStr"/>
       <c r="R92" t="n">
+        <v>20</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1563</v>
+      </c>
+      <c r="T92" t="n">
+        <v>27.815</v>
+      </c>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="n">
+        <v>6</v>
+      </c>
+      <c r="W92" t="n">
+        <v>6</v>
+      </c>
+      <c r="X92" t="n">
         <v>3</v>
       </c>
-      <c r="S92" t="n">
-        <v>0</v>
-      </c>
-      <c r="T92" t="n">
-        <v>1563</v>
-      </c>
-      <c r="U92" t="n">
-        <v>10.815</v>
-      </c>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="n">
-        <v>10.815</v>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>ERROR: date/time field value out of range: "8/22/12 16:00"
+LINE 43:     (36, '8/22/12 16:00', 322.0, 323.0, 324.0, 325.0, 326.0,...</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -11205,26 +12240,32 @@
       </c>
       <c r="Q93" t="inlineStr"/>
       <c r="R93" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>2982</v>
       </c>
       <c r="T93" t="n">
-        <v>2982</v>
-      </c>
-      <c r="U93" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="V93" t="inlineStr"/>
+        <v>43.91</v>
+      </c>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="n">
+        <v>6</v>
+      </c>
       <c r="W93" t="n">
-        <v>20.91</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Group 13</t>
+          <t>Group 13 (not existing)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -11242,10 +12283,14 @@
           <t>Province/State,Country/Region,Last Update,Confirmed,Deaths,Recovered</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Province/State and , Country/Region have text values. Last Update is a timestamp. Confirmed,Deaths,Recovered have integer values.</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Source13_1 04-02-2020</t>
+          <t xml:space="preserve">Source13_1 </t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -11260,43 +12305,49 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>FIPS have integer values. Admin2, Province_State, Country_Region have text values. Last_Update is a timestamp. Lat, Long_ are double precision values. Confirmed, Deaths, Recovered, Active are integer values. Combined_key have text values.</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr"/>
+          <t>FIPS have integer values. Admin2, Province_State, Country_Region have text values. Last_Update is a timestamp. Lat, Long_ are flaot values. Confirmed, Deaths, Recovered, Active are integer values. Combined_key have text values.</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Attribute should map as per attribute names from source to target schema.</t>
+        </is>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>45001,Abbeville,South Carolina,US,4/2/20 23:25,34.22333378,-82.46170658,6,0,0,6,"Abbeville, South Carolina, US"
-22001,Acadia,Louisiana,US,4/2/20 23:25,30.2950649,-92.41419698,61,1,0,60,"Acadia, Louisiana, US"
-51001,Accomack,Virginia,US,4/2/20 23:25,37.76707161,-75.63234615,10,0,0,10,"Accomack, Virginia, US"
-16001,Ada,Idaho,US,4/2/20 23:25,43.4526575,-116.2415516,312,3,0,309,"Ada, Idaho, US"
-19001,Adair,Iowa,US,4/2/20 23:25,41.33075609,-94.47105874,1,0,0,1,"Adair, Iowa, US"</t>
+ 22001,Acadia,Louisiana,US,4/2/20 23:25,30.2950649,-92.41419698,61,1,0,60,"Acadia, Louisiana, US"
+ 51001,Accomack,Virginia,US,4/2/20 23:25,37.76707161,-75.63234615,10,0,0,10,"Accomack, Virginia, US"
+ 16001,Ada,Idaho,US,4/2/20 23:25,43.4526575,-116.2415516,312,3,0,309,"Ada, Idaho, US"
+ 19001,Adair,Iowa,US,4/2/20 23:25,41.33075609,-94.47105874,1,0,0,1,"Adair, Iowa, US"</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>DROP TABLE IF EXISTS Target13_1;
-CREATE TABLE Target13_1 (
-    "Province/State" text,
-    "Country/Region" text,
-    "Last Update" timestamp,
-    Confirmed integer,
-    Deaths integer,
-    Recovered integer
-);
-INSERT INTO Target13_1 ("Province/State", "Country/Region", "Last Update", Confirmed, Deaths, Recovered)
-SELECT
-    Province_State AS "Province/State",
-    Country_Region AS "Country/Region",
-    Last_Update AS "Last Update",
-    Confirmed,
-    Deaths,
-    Recovered
-FROM Source13_1;</t>
+          <t>DROP TABLE IF EXISTS Target13_Valid; 
+ CREATE TABLE Target13_Valid ( 
+ "Province/State" text, 
+ "Country/Region" text, 
+ "Last Update" timestamp, 
+ Confirmed integer, 
+ Deaths integer, 
+ Recovered integer 
+ ); 
+ INSERT INTO Target13_Valid ("Province/State", "Country/Region", "Last Update", Confirmed, Deaths, Recovered) 
+ SELECT 
+ Province_State AS "Province/State", 
+ Country_Region AS "Country/Region", 
+ Last_Update AS "Last Update", 
+ Confirmed, 
+ Deaths, 
+ Recovered 
+ FROM Source13_1;</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
       <c r="O94" t="n">
         <v>1</v>
       </c>
@@ -11305,21 +12356,21 @@
       </c>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S94" t="n">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="T94" t="n">
-        <v>3</v>
-      </c>
-      <c r="U94" t="n">
-        <v>0.015</v>
-      </c>
+        <v>18.465</v>
+      </c>
+      <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
-      <c r="W94" t="n">
-        <v>0.015</v>
-      </c>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -11329,7 +12380,7 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Source13_2 02-15-2021</t>
+          <t>Source13_2</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -11344,10 +12395,14 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>FIPS have integer values. Admin2, Province_State, Country_Region have text values. Last_Update is a timestamp. Lat, Long_ ,Incident_Rate,Case_Fatality_Ratio are double precision values. Confirmed, Deaths, Recovered, Active are integer values. Combined_key have text values.</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr"/>
+          <t>FIPS have integer values. Admin2, Province_State, Country_Region have text values. Last_Update is a timestamp. Lat, Long_ ,Incident_Rate,Case_Fatality_Ratio are float values. Confirmed, Deaths, Recovered, Active are integer values. Combined_key have text values.</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Attribute should map as per attribute names from source to target schema.</t>
+        </is>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>0,0,0,'Afghanistan','2021-02-16 05:24:38',33.93911,67.709953,55514,2427,48433,4654,'Afghanistan',142.60561476277655,4.371870158878841
@@ -11359,28 +12414,30 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>DROP TABLE IF EXISTS Target13_2;
-CREATE TABLE Target13_2 (
-    "Province/State" text,
-    "Country/Region" text,
-    "Last Update" timestamp,
-    Confirmed integer,
-    Deaths integer,
-    Recovered integer
-);
-INSERT INTO Target13_2 ("Province/State", "Country/Region", "Last Update", Confirmed, Deaths, Recovered)
-SELECT
-    Province_State AS "Province/State",
-    Country_Region AS "Country/Region",
-    Last_Update AS "Last Update",
-    Confirmed,
-    Deaths,
-    Recovered
-FROM Source13_2;</t>
+          <t>DROP TABLE IF EXISTS Target13_Valid; 
+ CREATE TABLE Target13_Valid ( 
+ "Province/State" text, 
+ "Country/Region" text, 
+ "Last Update" timestamp, 
+ Confirmed integer, 
+ Deaths integer, 
+ Recovered integer 
+ ); 
+ INSERT INTO Target13_Valid("Province/State", "Country/Region", "Last Update", Confirmed, Deaths, Recovered) 
+ SELECT 
+ Province_State AS "Province/State", 
+ Country_Region AS "Country/Region", 
+ Last_Update AS "Last Update", 
+ Confirmed, 
+ Deaths, 
+ Recovered 
+ FROM Source13_2;</t>
         </is>
       </c>
       <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
       <c r="O95" t="n">
         <v>1</v>
       </c>
@@ -11389,21 +12446,21 @@
       </c>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="T95" t="n">
-        <v>3</v>
-      </c>
-      <c r="U95" t="n">
-        <v>0.015</v>
-      </c>
+        <v>18.45</v>
+      </c>
+      <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
-      <c r="W95" t="n">
-        <v>0.015</v>
-      </c>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -11413,7 +12470,7 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Source13_3 01-01-2021</t>
+          <t>Source13_3</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -11428,69 +12485,74 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Province_State, Country_Region have text values. Last_Update is a timestamp. Lat, Long_ are double precision values. Confirmed, Deaths, Recovered, Active, FIPS have integer values.Incident_Rate,Case_Fatality_Ratio are double precision values. Total_Test_Results , People_Hospitalized have integer values. UID is integer, ISO3 is text, Testing_Rate, Hospitalization_Rate,Mortality_Rate have double precision values. Date is date, People_Tested have integer values.</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr"/>
+          <t>Province_State, Country_Region have text values. Last_Update is a timestamp. Lat, Long_ are float values. Confirmed, Deaths, Active, FIPS have integer values.Incident_Rate,Case_Fatality_Ratio are float values. Total_Test_Results , People_Hospitalized have integer values. UID is integer, ISO3 is text. Recovered, Testing_Rate, Hospitalization_Rate,Mortality_Rate have float values. Date is date, People_Tested have integer values.</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Attribute should map as per attribute names from source to target schema.</t>
+        </is>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 'Alabama','US','2021-01-02 05:30:44',32.3182,-86.9023,365747,4872,202137.0,158738.0,1.0,7459.375895463867,null,null,1.3320683423240656,84000001.0,'USA',null,null,'2021-01-01',null,null
- 'Alaska','US','2021-01-02 05:30:44',61.3707,-152.4044,47019,206,7165.0,39648.0,2.0,6427.355801762024,1275750.0,null,0.4381207596928901,84000002.0,'USA',174391.1857780451,null,'2021-01-01',null,null
-'American Samoa','US','2021-01-02 05:30:44',-14.271,-170.132,0,0,null,null,60.0,0.0,2140.0,null,null,16.0,'ASM',3846.084721698028,null,'2021-01-01',null,null
-'Arizona','US','2021-01-02 05:30:44',33.7298,-111.4312,530267,9015,76934.0,444318.0,4.0,7285.171274003372,5155330.0,null,1.7000869373353424,84000004.0,'USA',39551.860582022906,null,'2021-01-01',null,null
-'Arkansas','US','2021-01-02 05:30:44',34.9697,-92.3731,229442,3711,199247.0,26484.0,5.0,7602.945718144717,2051488.0,null,1.6174022192972517,84000005.0,'USA',67979.49767446793,null,'2021-01-01',null,null
-'California','US','2021-01-02 05:30:44',36.1162,-119.6816,2434971,26298,null,null,6.0,6164.469662969861,33058311.0,null,1.0743439616803088,84000006.0,'USA',83666.03670970372,null,'2021-01-01',null,null
-</t>
+          <t>Alabama','US','2021-01-02 05:30:44',32.3182,-86.9023,365747,4872,202137.0,158738.0,1.0,7459.375895463867,0,0,1.3320683423240656,84000001.0,'USA',0,0,'2021-01-01',0,0
+ 'Alaska','US','2021-01-02 05:30:44',61.3707,-152.4044,47019,206,7165.0,39648.0,2.0,6427.355801762024,1275750.0,null,0.4381207596928901,84000002.0,'USA',174391.1857780451,0,'2021-01-01',0,0
+ 'American Samoa','US','2021-01-02 05:30:44',-14.271,-170.132,0,0,0.0,0.0,60.0,0.0,2140.0,0,0,16.0,'ASM',3846.084721698028,0,'2021-01-01',0,0
+ 'Arizona','US','2021-01-02 05:30:44',33.7298,-111.4312,530267,9015,76934.0,444318.0,4.0,7285.171274003372,5155330.0,0,1.7000869373353424,84000004.0,'USA',39551.860582022906,0,'2021-01-01',0,0
+ 'Arkansas','US','2021-01-02 05:30:44',34.9697,-92.3731,229442,3711,199247.0,26484.0,5.0,7602.945718144717,2051488.0,0,1.6174022192972517,84000005.0,'USA',67979.49767446793,0,'2021-01-01',0,0
+ 'California','US','2021-01-02 05:30:44',36.1162,-119.6816,2434971,26298,0.0,0,6.0,6164.469662969861,33058311.0,0,1.0743439616803088,84000006.0,'USA',83666.03670970372,0,'2021-01-01',0,0</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>DROP TABLE IF EXISTS Target13_3;
-CREATE TABLE Target13_3 (
-    "Province/State" text,
-    "Country/Region" text,
-    "Last Update" timestamp,
-    Confirmed integer,
-    Deaths integer,
-    Recovered integer
-);
--- Insert data from Source Schema into Target Schema
-INSERT INTO Target13_3 ("Province/State", "Country/Region", "Last Update", Confirmed, Deaths, Recovered)
-SELECT
-    Province_State AS "Province/State",
-    Country_Region AS "Country/Region",
-    Last_Update AS "Last Update",
-    Confirmed,
-    Deaths,
-    Recovered
-FROM Source13_3;</t>
+          <t>DROP TABLE IF EXISTS Target13_Valid;
+ CREATE TABLE Target13_Valid (
+ "Province/State" text,
+ "Country/Region" text,
+ "Last Update" timestamp,
+ Confirmed integer,
+ Deaths integer,
+ Recovered integer
+ );
+ -- Insert data from Source Schema into Target Schema
+ INSERT INTO Target13_Valid ("Province/State", "Country/Region", "Last Update", Confirmed, Deaths, Recovered)
+ SELECT
+ Province_State AS "Province/State",
+ Country_Region AS "Country/Region",
+ Last_Update AS "Last Update",
+ Confirmed,
+ Deaths,
+ Recovered
+ FROM Source13_3;</t>
         </is>
       </c>
       <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
       <c r="O96" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="P96" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="T96" t="n">
-        <v>3</v>
-      </c>
-      <c r="U96" t="n">
-        <v>0.015</v>
-      </c>
+        <v>21.64</v>
+      </c>
+      <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
-      <c r="W96" t="n">
-        <v>0.015</v>
-      </c>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -11500,7 +12562,7 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Source13_4 01-01-2023</t>
+          <t>Source13_4</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -11515,71 +12577,79 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Province_State, Country_Region have text values. Last_Update is a timestamp. Lat, Long_ are double precision values. Confirmed, Deaths, Recovered, Active, FIPS have integer values.Incident_Rate,Case_Fatality_Ratio are double precision values. Total_Test_Results , People_Hospitalized have integer values. UID is integer, ISO3 is text, Testing_Rate, Hospitalization_Rate have double precision values.</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr"/>
+          <t>Province_State, Country_Region have text values. Last_Update is a timestamp. Lat, Long_ are float values. Confirmed, Deaths, Recovered, Active, FIPS have integer values. Incident_Rate,Case_Fatality_Ratio are float values. Total_Test_Results , People_Hospitalized have integer values. UID is integer, ISO3 is text, Testing_Rate, Hospitalization_Rate have double precision values.</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Attribute should map as per attribute names from source to target schema.</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>Alabama','US','2023-01-02 04:31:21',32.3182,-86.9023,1568934,20737,null,null,1.0,31998.262353959723,null,null,1.3217254518035813,84000001.0,'USA',null,null
-'Alaska','US','2023-01-02 04:31:21',61.3707,-152.4044,301432,1455,null,null,2.0,41204.84727528723,null,null,0.4826959314206853,84000002.0,'USA',null,null
-'American Samoa','US','2023-01-02 04:31:21',-14.271,-170.132,8266,34,null,null,60.0,14855.95154652145,null,null,0.4113234938301476,16.0,'ASM',null,null
-'Arizona','US','2023-01-02 04:31:21',33.7298,-111.4312,2378334,32182,null,null,4.0,32675.18162885025,null,null,1.353132066396057,84000004.0,'USA',null,null
-'Arkansas','US','2023-01-02 04:31:21',34.9697,-92.3731,985747,12695,null,null,5.0,32664.381119516045,null,null,1.2878558088434455,84000005.0,'USA',null,null</t>
+ 'Alaska','US','2023-01-02 04:31:21',61.3707,-152.4044,301432,1455,null,null,2.0,41204.84727528723,null,null,0.4826959314206853,84000002.0,'USA',null,null
+ 'American Samoa','US','2023-01-02 04:31:21',-14.271,-170.132,8266,34,null,null,60.0,14855.95154652145,null,null,0.4113234938301476,16.0,'ASM',null,null
+ 'Arizona','US','2023-01-02 04:31:21',33.7298,-111.4312,2378334,32182,null,null,4.0,32675.18162885025,null,null,1.353132066396057,84000004.0,'USA',null,null
+ 'Arkansas','US','2023-01-02 04:31:21',34.9697,-92.3731,985747,12695,null,null,5.0,32664.381119516045,null,null,1.2878558088434455,84000005.0,'USA',null,null</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>DROP TABLE IF EXISTS Target13_4;
-CREATE TABLE Target13_4 (
-    "Province/State" text,
-    "Country/Region" text,
-    "Last Update" timestamp,
-    Confirmed integer,
-    Deaths integer,
-    Recovered integer
-);
-INSERT INTO Target13_4 ("Province/State", "Country/Region", "Last Update", Confirmed, Deaths, Recovered)
-SELECT
-    Province_State AS "Province/State",
-    Country_Region AS "Country/Region",
-    Last_Update AS "Last Update",
-    Confirmed,
-    Deaths,
-    Recovered
-FROM Source13_4;</t>
+          <t>DROP TABLE IF EXISTS Target13_Valid; 
+ CREATE TABLE Target13_Valid ( 
+ "Province/State" text, 
+ "Country/Region" text, 
+ "Last Update" timestamp, 
+ Confirmed integer, 
+ Deaths integer, 
+ Recovered integer 
+ ); 
+ INSERT INTO Target13_Valid ("Province/State", "Country/Region", "Last Update", Confirmed, Deaths, Recovered) 
+ SELECT 
+ Province_State AS "Province/State", 
+ Country_Region AS "Country/Region", 
+ Last_Update AS "Last Update", 
+ Confirmed, 
+ Deaths, 
+ Recovered 
+ FROM Source13_4;</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
       <c r="O97" t="n">
         <v>1</v>
       </c>
-      <c r="P97" t="n">
-        <v>1</v>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>1/0</t>
+        </is>
       </c>
       <c r="Q97" t="inlineStr"/>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S97" t="n">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="T97" t="n">
-        <v>3</v>
-      </c>
-      <c r="U97" t="n">
-        <v>0.015</v>
-      </c>
+        <v>18.455</v>
+      </c>
+      <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
-      <c r="W97" t="n">
-        <v>0.015</v>
-      </c>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Group 14</t>
+          <t>Group 14 (not existing)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -11688,21 +12758,21 @@
       </c>
       <c r="Q98" t="inlineStr"/>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S98" t="n">
-        <v>0</v>
+        <v>1408</v>
       </c>
       <c r="T98" t="n">
-        <v>3</v>
-      </c>
-      <c r="U98" t="n">
-        <v>0.015</v>
-      </c>
+        <v>21.04</v>
+      </c>
+      <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
-      <c r="W98" t="n">
-        <v>0.015</v>
-      </c>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -11738,23 +12808,23 @@
         <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T99" t="n">
-        <v>3</v>
-      </c>
-      <c r="U99" t="n">
         <v>0.015</v>
       </c>
+      <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
-      <c r="W99" t="n">
-        <v>0.015</v>
-      </c>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Group 15</t>
+          <t>Group 15 (Alias Group 14)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -11869,25 +12939,31 @@
       </c>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>1606</v>
       </c>
       <c r="T100" t="n">
-        <v>1606</v>
-      </c>
-      <c r="U100" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="V100" t="inlineStr">
+        <v>27.03</v>
+      </c>
+      <c r="U100" t="inlineStr">
         <is>
           <t>Zero is due to no groupby.</t>
         </is>
       </c>
+      <c r="V100" t="n">
+        <v>6</v>
+      </c>
       <c r="W100" t="n">
-        <v>11.03</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -11981,25 +13057,31 @@
       </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>1623</v>
       </c>
       <c r="T101" t="n">
-        <v>1623</v>
-      </c>
-      <c r="U101" t="n">
-        <v>13.115</v>
-      </c>
-      <c r="V101" t="inlineStr">
+        <v>33.115</v>
+      </c>
+      <c r="U101" t="inlineStr">
         <is>
           <t>Zero is due to no groupby.</t>
         </is>
       </c>
+      <c r="V101" t="n">
+        <v>6</v>
+      </c>
       <c r="W101" t="n">
-        <v>13.115</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -12101,21 +13183,27 @@
         <v>1</v>
       </c>
       <c r="R102" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="S102" t="n">
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="T102" t="n">
-        <v>1214</v>
-      </c>
-      <c r="U102" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="V102" t="inlineStr"/>
+        <v>28.07</v>
+      </c>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="n">
+        <v>6</v>
+      </c>
       <c r="W102" t="n">
-        <v>9.07</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X102" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -12231,26 +13319,32 @@
         <v>1</v>
       </c>
       <c r="R103" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>2484</v>
       </c>
       <c r="T103" t="n">
-        <v>2484</v>
-      </c>
-      <c r="U103" t="n">
-        <v>21.42</v>
-      </c>
-      <c r="V103" t="inlineStr"/>
+        <v>47.42</v>
+      </c>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="n">
+        <v>6</v>
+      </c>
       <c r="W103" t="n">
-        <v>21.42</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X103" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Group 16</t>
+          <t>Group 16 (Alias Group 15)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -12373,25 +13467,31 @@
       </c>
       <c r="Q104" t="inlineStr"/>
       <c r="R104" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>1891</v>
       </c>
       <c r="T104" t="n">
-        <v>1891</v>
-      </c>
-      <c r="U104" t="n">
-        <v>17.455</v>
-      </c>
-      <c r="V104" t="inlineStr">
+        <v>36.455</v>
+      </c>
+      <c r="U104" t="inlineStr">
         <is>
           <t>Zero is due to no groupby.</t>
         </is>
       </c>
+      <c r="V104" t="n">
+        <v>6</v>
+      </c>
       <c r="W104" t="n">
-        <v>17.455</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -12492,25 +13592,31 @@
       </c>
       <c r="Q105" t="inlineStr"/>
       <c r="R105" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>1940</v>
       </c>
       <c r="T105" t="n">
-        <v>1940</v>
-      </c>
-      <c r="U105" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="V105" t="inlineStr">
+        <v>39.7</v>
+      </c>
+      <c r="U105" t="inlineStr">
         <is>
           <t>Zero is due to no groupby.</t>
         </is>
       </c>
+      <c r="V105" t="n">
+        <v>6</v>
+      </c>
       <c r="W105" t="n">
-        <v>18.7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -12614,25 +13720,31 @@
       </c>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="S106" t="n">
-        <v>0</v>
+        <v>1638</v>
       </c>
       <c r="T106" t="n">
-        <v>1638</v>
-      </c>
-      <c r="U106" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="V106" t="inlineStr">
+        <v>42.19</v>
+      </c>
+      <c r="U106" t="inlineStr">
         <is>
           <t>No groupby in the query even though it is instructed in the hints</t>
         </is>
       </c>
+      <c r="V106" t="n">
+        <v>6</v>
+      </c>
       <c r="W106" t="n">
-        <v>16.19</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X106" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -12730,30 +13842,36 @@
       </c>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="S107" t="n">
-        <v>0</v>
+        <v>2203</v>
       </c>
       <c r="T107" t="n">
-        <v>2203</v>
-      </c>
-      <c r="U107" t="n">
-        <v>20.015</v>
-      </c>
-      <c r="V107" t="inlineStr">
+        <v>46.015</v>
+      </c>
+      <c r="U107" t="inlineStr">
         <is>
           <t>Zero is due to no groupby.</t>
         </is>
       </c>
+      <c r="V107" t="n">
+        <v>6</v>
+      </c>
       <c r="W107" t="n">
-        <v>20.015</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Group 17</t>
+          <t>Group 17 (Alias Group 12)</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -12803,8 +13921,8 @@
 Map several columns need to be summed up to map to a target attribute: 
 HVAC should map to the sum of 'electricity_heating_kwh', 'electricity_central_system_heating_kwh', 'electricity_cooling_kwh', 'Electricity_central_system_cooling_kwh', 'electricity_fans_heating_kwh', 'electricity_fans_cooling_kwh', 'electricity_pumps_heating_kwh', 'electricity_central_system_pumps_heating_kwh', 'electricity_pumps_cooling_kwh', 'Electricity_central_system_pumps_cooling_kwh', 'electricity_house_fan_kwh', 'electricity_range_fan_kwh', 'electricity_bath_fan_kwh'.
 water_heating should map to 'electricity_water_systems_kwh'. 
-refrigerator should be mapped to the sum of 'electricity_refrigerator_kwh'. clothes_washer shoule map to 'electricity_clothes_washer_kwh'. clothes_dryer should map to 'electricity_clothes_dryer_kwh'. dishwasher should map to 'electricity_dishwasher_kwh'. cooking range should map to  'electricity_cooking_range_kwh'. pool_spa_pump should map to 'electricity_pool_pump_kwh'. lighting should map to the sum of 'electricity_interior_lighting_kwh', and 'electricity_exterior_lighting_kwh'. 
-plug should map to 'electricity_plug_loads_kwh', pool_spa_heater should map to  'electricity_hot_tub_heater_kwh'. 
+refrigerator should be mapped to the sum of 'electricity_refrigerator_kwh'. clothes_washer shoule map to 'electricity_clothes_washer_kwh'. clothes_dryer should map to 'electricity_clothes_dryer_kwh'. dishwasher should map to 'electricity_dishwasher_kwh'. cooking range should map to  'electricity_cooking_range_kwh'. pool_spa_pump should map to the sum of 'electricity_pool_pump_kwh',’electricity_hot_tub_pump_kwh’. lighting should map to the sum of 'electricity_interior_lighting_kwh', and 'electricity_exterior_lighting_kwh'. 
+plug should map to 'electricity_plug_loads_kwh', pool_spa_heater should map to the sum of  'electricity_hot_tub_heater_kwh',’electricity_pool_heater_kwh’. 
 You have to use group by for season and hour and aggregate them by summation.</t>
         </is>
       </c>
@@ -12867,7 +13985,7 @@
       </c>
       <c r="M108" t="inlineStr"/>
       <c r="N108" t="n">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
@@ -12877,21 +13995,27 @@
       </c>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="S108" t="n">
-        <v>0</v>
+        <v>2127</v>
       </c>
       <c r="T108" t="n">
-        <v>2127</v>
-      </c>
-      <c r="U108" t="n">
-        <v>18.635</v>
-      </c>
-      <c r="V108" t="inlineStr"/>
+        <v>36.635</v>
+      </c>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="n">
+        <v>6</v>
+      </c>
       <c r="W108" t="n">
-        <v>18.635</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -12934,17 +14058,17 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>“4/4/16 18:00”,102.057,388,23.613,77,2.063,9,0.022,4,0.236,1,1.616,95,0.068,11,3.101,83,1.988,34,0.165,6,0.015,1,0.035,1,,0,60.037,82,,0,,0,2.038,237,0.217,30,0.293,22,,0,4.092,265,0.103,134,25.281,238,0.561,58,0.746,14,27.349,301,4.262,57,1.528,42,0.05,4,549.192,423,0.512,8,,0,,0,0,3,0.518,6,0.646,35,2.332,46,0.883,13,4.363,189,2.782,142,6.146,115,3.343,57,2.459,27,0.369,10,0.036,5,0.021,1,7.551,82,0.87,9,4.023,206,4.434,44,0.814,27,0.571,5,15.85,163,0.027,5,0.208,2,,0,0,3,7.832,28,0.018,5,3.371,87,26.764,280,2.877,29,0.29,16,,0,0.335,3,130.861,282,,0,0.035,11,,0,1.006,6,0.801,34,14.053,40,0.008,3,,0,0.286,6
- “4/4/16 18:15”,108.213,388,14.166,77,1.631,9,0.022,4,0.16,1,1.625,95,0.043,11,3.487,83,2.072,34,0.162,6,0.014,1,0.038,1,,0,60.251,82,,0,,0,1.478,237,0.024,30,0.279,22,,0,7.852,265,0.096,134,31.687,238,0.539,58,1.286,14,28.887,301,4.052,57,1.268,42,0.05,4,612.065,423,0.242,8,,0,,0,0,3,0.681,6,4.698,35,2.259,46,0.974,13,3.953,189,3.836,142,7.853,115,3.5,57,2.727,27,0.343,10,0.019,5,0.021,1,8.018,82,0.87,9,6.386,206,4.599,44,0.988,27,0.582,5,12.451,163,0.018,5,0.146,2,,0,0,3,8.298,28,0.014,5,2.035,87,28.036,280,2.385,29,0.29,16,,0,0.201,3,77.407,282,,0,0.033,11,,0,1.171,6,0.785,34,9.527,40,0.006,3,,0,0.327,6
- “4/4/16 18:30”,94.715,388,14.413,77,1.861,9,0.023,4,0.1,1,1.824,95,0.429,11,3.412,83,1.862,34,0.162,6,0.014,1,0.038,1,,0,51.344,82,,0,,0,1.127,237,0.363,30,0.258,22,,0,6.351,265,0.105,134,22.112,238,0.349,58,1.09,14,26.926,301,3.629,57,1.089,42,0.05,4,623.753,423,0.484,8,,0,,0,0,3,0.59,6,4.346,35,2.858,46,0.754,13,4.298,189,1.725,142,10.798,115,3.517,57,2.588,27,0.359,10,0.249,5,0.021,1,8.74,82,0.909,9,3.016,206,4.779,44,1.01,27,0.685,5,12.096,163,0.026,5,0.147,2,,0,0,3,5.972,28,0.018,5,2.234,87,27.121,280,2.534,29,0.289,16,,0,0.005,3,29.184,282,,0,0.054,11,,0,1.109,6,0.679,34,9.595,40,3.512,3,,0,0.406,6
- “4/4/16 18:45”,86.045,388,17.683,77,1.141,9,0.023,4,0.075,1,1.728,95,0.725,11,3.726,83,2.03,34,0.162,6,0.014,1,0.038,1,,0,53.045,82,,0,,0,0.901,237,0.599,30,0.259,22,,0,5.084,265,0.077,134,18.873,238,0.116,58,0.756,14,26.447,301,3.85,57,1.183,42,0.134,4,630.259,423,0.224,8,,0,,0,3,0.012 0.7,6,1.051,35,2.522,46,0.783,13,2.641,189,2.204,142,10.309,115,3.935,57,2.833,27,0.408,10,0.428,5,0.021,1,9.5,82,0.866,9,4.007,206,4.86,44,1.37,27,0.804,5,14.378,163,0.027,5,0.148,2,,0,0,3,5.593,28,0.014,5,1.167,87,26.232,280,2.656,29,0.292,16,,0,0.014,3,12.177,282,,0,0.029,11,,0,0.991,6,0.338,34,15.571,40,1.241,3,,0,0.301,,6
- “4/4/16 19:00”,91.676,388,14.401,77,1.319,9,0.022,4,0.117,1,1.9,96,0.628,11,4.274,83,2.042,34,0.178,6,0.014,1,0.037,1,,0,61.889,82,,0,,0,0.782,238,0.583,30,0.262,22,,0,5.271,266,0.083,135,19.732,238,0.327,58,0.713,14,26.16,302,3.429,57,1.69,43,0.177,4,658.31,423,0.46,8,,0,,0,0,3,0.673,6,1.014,35,2.535,46,0.667,13,2.913,190,1.48,143,11.611,116,4.263,57,2.987,27,0.358,10,0.442,5,0.021,1,10.45,82,0.867,9,2.973,207,4.895,45,1.204,27,0.844,5,8.554,163,0.029,5,0.147,2,,0,0,3,5.381,28,0.018,5,3.787,87,27.235,281,2.131,29,0.291,16,,0,0.009,3,8.327,282,,0,0.061,11,,0,1.08,6,0.376,34,14.635,40,0.004,3,,0,0.338,6</t>
+          <t>4/4/16 18:00',102.057,388,23.613,77,2.063,9,0.022,4,0.236,1,1.616,95,0.068,11,3.101,83,1.988,34,0.165,6,0.015,1,0.035,1,,0,60.037,82,,0,,0,2.038,237,0.217,30,0.293,22,,0,4.092,265,0.103,134,25.281,238,0.561,58,0.746,14,27.349,301,4.262,57,1.528,42,0.05,4,549.192,423,0.512,8,,0,,0,0,3,0.518,6,0.646,35,2.332,46,0.883,13,4.363,189,2.782,142,6.146,115,3.343,57,2.459,27,0.369,10,0.036,5,0.021,1,7.551,82,0.87,9,4.023,206,4.434,44,0.814,27,0.571,5,15.85,163,0.027,5,0.208,2,,0,0,3,7.832,28,0.018,5,3.371,87,26.764,280,2.877,29,0.29,16,,0,0.335,3,130.861,282,,0,0.035,11,,0,1.006,6,0.801,34,14.053,40,0.008,3,,0,0.286,6
+ '4/4/16 18:15',108.213,388,14.166,77,1.631,9,0.022,4,0.16,1,1.625,95,0.043,11,3.487,83,2.072,34,0.162,6,0.014,1,0.038,1,,0,60.251,82,,0,,0,1.478,237,0.024,30,0.279,22,,0,7.852,265,0.096,134,31.687,238,0.539,58,1.286,14,28.887,301,4.052,57,1.268,42,0.05,4,612.065,423,0.242,8,,0,,0,0,3,0.681,6,4.698,35,2.259,46,0.974,13,3.953,189,3.836,142,7.853,115,3.5,57,2.727,27,0.343,10,0.019,5,0.021,1,8.018,82,0.87,9,6.386,206,4.599,44,0.988,27,0.582,5,12.451,163,0.018,5,0.146,2,,0,0,3,8.298,28,0.014,5,2.035,87,28.036,280,2.385,29,0.29,16,,0,0.201,3,77.407,282,,0,0.033,11,,0,1.171,6,0.785,34,9.527,40,0.006,3,,0,0.327,6
+ '4/4/16 18:30',94.715,388,14.413,77,1.861,9,0.023,4,0.1,1,1.824,95,0.429,11,3.412,83,1.862,34,0.162,6,0.014,1,0.038,1,,0,51.344,82,,0,,0,1.127,237,0.363,30,0.258,22,,0,6.351,265,0.105,134,22.112,238,0.349,58,1.09,14,26.926,301,3.629,57,1.089,42,0.05,4,623.753,423,0.484,8,,0,,0,0,3,0.59,6,4.346,35,2.858,46,0.754,13,4.298,189,1.725,142,10.798,115,3.517,57,2.588,27,0.359,10,0.249,5,0.021,1,8.74,82,0.909,9,3.016,206,4.779,44,1.01,27,0.685,5,12.096,163,0.026,5,0.147,2,,0,0,3,5.972,28,0.018,5,2.234,87,27.121,280,2.534,29,0.289,16,,0,0.005,3,29.184,282,,0,0.054,11,,0,1.109,6,0.679,34,9.595,40,3.512,3,,0,0.406,6
+ '4/4/16 18:45',86.045,388,17.683,77,1.141,9,0.023,4,0.075,1,1.728,95,0.725,11,3.726,83,2.03,34,0.162,6,0.014,1,0.038,1,,0,53.045,82,,0,,0,0.901,237,0.599,30,0.259,22,,0,5.084,265,0.077,134,18.873,238,0.116,58,0.756,14,26.447,301,3.85,57,1.183,42,0.134,4,630.259,423,0.224,8,,0,,0,3,0.012 0.7,6,1.051,35,2.522,46,0.783,13,2.641,189,2.204,142,10.309,115,3.935,57,2.833,27,0.408,10,0.428,5,0.021,1,9.5,82,0.866,9,4.007,206,4.86,44,1.37,27,0.804,5,14.378,163,0.027,5,0.148,2,,0,0,3,5.593,28,0.014,5,1.167,87,26.232,280,2.656,29,0.292,16,,0,0.014,3,12.177,282,,0,0.029,11,,0,0.991,6,0.338,34,15.571,40,1.241,3,,0,0.301,,6
+ '4/4/16 19:00',91.676,388,14.401,77,1.319,9,0.022,4,0.117,1,1.9,96,0.628,11,4.274,83,2.042,34,0.178,6,0.014,1,0.037,1,,0,61.889,82,,0,,0,0.782,238,0.583,30,0.262,22,,0,5.271,266,0.083,135,19.732,238,0.327,58,0.713,14,26.16,302,3.429,57,1.69,43,0.177,4,658.31,423,0.46,8,,0,,0,0,3,0.673,6,1.014,35,2.535,46,0.667,13,2.913,190,1.48,143,11.611,116,4.263,57,2.987,27,0.358,10,0.442,5,0.021,1,10.45,82,0.867,9,2.973,207,4.895,45,1.204,27,0.844,5,8.554,163,0.029,5,0.147,2,,0,0,3,5.381,28,0.018,5,3.787,87,27.235,281,2.131,29,0.291,16,,0,0.009,3,8.327,282,,0,0.061,11,,0,1.08,6,0.376,34,14.635,40,0.004,3,,0,0.338,6</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>DROP TABLE IF EXISTS Target17_Valid;
- CREATE TABLE Target17_Valid (
+CREATE TABLE Target17_Valid (
   season VARCHAR(10),
   hour INT,
   HVAC FLOAT,
@@ -12965,25 +14089,25 @@
  cooking_range, pool_spa_pumps, interior_lighting, exterior_lighting, lighting, plug, pool_spa_heaters)
  SELECT
   CASE 
-  WHEN EXTRACT(MONTH FROM local_15min) IN (3, 4, 5) THEN 'Spring' 
-  WHEN EXTRACT(MONTH FROM local_15min) IN (6, 7, 8) THEN 'Summer' 
-  WHEN EXTRACT(MONTH FROM local_15min) IN (9, 10, 11) THEN 'Fall' 
+    WHEN EXTRACT(MONTH FROM TO_TIMESTAMP(local_15min, 'MM/DD/YY HH24:MI')) IN (3, 4, 5) THEN 'Spring' 
+    WHEN EXTRACT(MONTH FROM TO_TIMESTAMP(local_15min, 'MM/DD/YY HH24:MI')) IN (6, 7, 8) THEN 'Summer' 
+    WHEN EXTRACT(MONTH FROM TO_TIMESTAMP(local_15min, 'MM/DD/YY HH24:MI')) IN (9, 10, 11) THEN 'Fall' 
   ELSE 'Winter'
   END AS season,
-  EXTRACT(HOUR FROM local_15min) AS hour,
-  SUM(airwindowunit1_sum + furnace1_sum + furnace2_sum + heater1_sum + housefan1_sum) AS HVAC,
+  EXTRACT(HOUR FROM TO_TIMESTAMP(local_15min, 'MM/DD/YY HH24:MI')) AS hour,
+  SUM(airwindowunit1_sum + furnace1_sum + furnace2_sum + housefan1_sum + venthood1_sum) AS HVAC,
   SUM(waterheater1_sum + waterheater2_sum) AS water_heating,
-  SUM(refrigerator1_sum + refrigerator2_sum) AS refrigerator,
+  SUM(refrigerator1_sum) AS refrigerator,
   SUM(clotheswasher1_sum) AS clothes_washer,
-  SUM(clotheswasher_dryg1_sum) AS clothes_dryer,
+  SUM(drye1_sum) AS clothes_dryer,
   SUM(dishwasher1_sum) AS dishwasher,
   SUM(oven1_sum + oven2_sum + range1_sum) AS cooking_range,
   SUM(poolpump1_sum) AS pool_spa_pumps,
-  SUM(lights_plugs1_sum + lights_plugs2_sum + lights_plugs3_sum + lights_plugs4_sum + lights_plugs5_sum + lights_plugs6_sum) AS interior_lighting,
-  SUM(outsidelights_plugs1_sum + outsidelights_plugs2_sum + poollight1_sum) AS exterior_lighting,
+  SUM(lights_plugs1_sum + lights_plugs2_sum + lights_plugs3_sum + lights_plugs4_sum + lights_plugs5_sum + lights_plugs6_sum + outsidelights_plugs1_sum + outsidelights_plugs2_sum + poollight1_sum) AS interior_lighting,
+  SUM(lights_plugs1_sum + lights_plugs2_sum  + lights_plugs3_sum + lights_plugs4_sum + lights_plugs5_sum + lights_plugs6_sum + outsidelights_plugs1_sum + outsidelights_plugs2_sum + poollight1_sum) AS exterior_lighting,
   SUM(lights_plugs1_sum + lights_plugs2_sum + lights_plugs3_sum + lights_plugs4_sum + lights_plugs5_sum + lights_plugs6_sum + outsidelights_plugs1_sum + outsidelights_plugs2_sum + poollight1_sum) AS lighting,
-  SUM(aquarium1_sum + disposal1_sum + kitchenapp1_sum + kitchenapp2_sum + microwave1_sum + security1_sum + shed1_sum + sprinkler1_sum + pump1_sum + icemaker1_sum) AS plug,
-  SUM(jacuzzi1_sum) AS pool_spa_heater
+  SUM(aquarium1_sum + disposal1_sum + kitchenapp1_sum + kitchenapp2_sum + microwave1_sum + security1_sum + shed1_sum + sprinkler1_sum + pump1_sum + icemaker1_sum + freezer1_sum + refrigerator2_sum + winecooler1_sum + car1_sum) AS plug,
+  SUM(poolpump1_sum) AS pool_spa_heater
  FROM Source17_2
  group by season, hour;</t>
         </is>
@@ -12998,23 +14122,31 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
-      <c r="Q109" t="inlineStr"/>
+      <c r="Q109" t="n">
+        <v>1</v>
+      </c>
       <c r="R109" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="S109" t="n">
-        <v>0</v>
+        <v>2430</v>
       </c>
       <c r="T109" t="n">
-        <v>2064</v>
-      </c>
-      <c r="U109" t="n">
-        <v>18.32</v>
-      </c>
-      <c r="V109" t="inlineStr"/>
+        <v>37.15</v>
+      </c>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="n">
+        <v>6</v>
+      </c>
       <c r="W109" t="n">
-        <v>18.32</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X109" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -13049,7 +14181,7 @@
  Map several columns need to be summed up to map to a target attribute: 
  HVAC should map to the sum of ‘AC COMPRESSOR WHS [emon ch3,4]’, ‘AIR HANDLER WHS [emon ch5,6]’, and ‘Minisplit WHS (2-CTs) [xpod chA-7,8]’
  water_heating should map to ‘WATER HEATER WHS [emon ch7,8]’. 
- refrigerator should be mapped to the sum of ‘Primary Fridge WHS [emon ch12]’,clothe_washer should be 0. clothes_dryer should map to sum of ‘DRYER WHS (1-CT) [emon ch9]’, ‘Dryer WHS (2-CTs) [xpod chA-9,10]’. dishwasher should map to ‘DISH WASHER WHS [emon ch11]’, cooking_range should map to ‘RANGE WHS (1-CT) [emon ch10]’. pool_spa_pump should map to ‘POOL PUMP WHS (2-CTs) [xpod chA-3,4]’.
+ refrigerator should be mapped to the sum of ‘Primary Fridge WHS [emon ch12]’,’2nd Fridge WHS [emon ch13]’.clothe_washer should be 0. clothes_dryer should map to sum of ‘DRYER WHS (1-CT) [emon ch9]’, ‘Dryer WHS (2-CTs) [xpod chA-9,10]’. dishwasher should map to ‘DISH WASHER WHS [emon ch11]’, cooking_range should map to ‘RANGE WHS (1-CT) [emon ch10]’. pool_spa_pump should map to ‘POOL PUMP WHS (2-CTs) [xpod chA-3,4]’.
  interior_lighting and exterior_lighting and lighting is not in the first table, just map lighting to 0.0. The plug should map to the 0.0 
  Second You must group by for season and hour and aggregate them by summation.</t>
         </is>
@@ -13065,54 +14197,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>DROP TABLE IF EXISTS Target17_Valid;
- CREATE TABLE Target17_Valid (
-  season VARCHAR(10),
-  hour INT,
-  HVAC FLOAT,
-  water_heating FLOAT,
-  refrigerator FLOAT,
-  clothes_washer FLOAT,
-  clothes_dryer FLOAT,
-  dishwasher FLOAT,
-  cooking_range FLOAT,
-  pool_spa_pumps FLOAT,
-  interior_lighting FLOAT,
-  exterior_lighting FLOAT,
-  lighting FLOAT,
-  plug FLOAT,
-  pool_spa_heater FLOAT
- );
- INSERT INTO Target17_Valid (season, hour, HVAC, water_heating, refrigerator, clothes_washer, clothes_dryer, dishwasher,
- cooking_range, pool_spa_pumps, interior_lighting, exterior_lighting, lighting, plug, pool_spa_heater)
- SELECT
-  CASE
-  WHEN EXTRACT(MONTH FROM timestamp) IN (3, 4, 5) THEN 'Spring' 
-  WHEN EXTRACT(MONTH FROM timestamp) IN (6, 7, 8) THEN 'Summer' 
-  WHEN EXTRACT(MONTH FROM timestamp) IN (9, 10, 11) THEN 'Fall' 
-  ELSE 'Winter'
-  END AS season,
-  EXTRACT(HOUR FROM timestamp) AS hour,
-  SUM("AC COMPRESSOR WHS [emon ch3,4]" + "AIR HANDLER WHS [emon ch5,6]" + "Minisplit WHS (2-CTs) [xpod chA-7,8]") AS "HVAC",
-  SUM("WATER HEATER WHS [emon ch7,8]") AS "water_heating",
-  SUM("Primary Fridge WHS [emon ch12]" + "2nd Fridge WHS [emon ch13]" ) AS refrigerator,
-  0.0 AS clothes_washer,
-  SUM("DRYER WHS (1-CT) [emon ch9]" + "Dryer WHS (2-CTs) [xpod chA-9,10]") AS clothes_dryer,
-  SUM("DISH WASHER WHS [emon ch11]") AS dishwasher,
-  SUM("RANGE WHS (1-CT) [emon ch10]") AS cooking_range,
-  SUM("POOL PUMP WHS (2-CTs) [xpod chA-3,4]") AS pool_spa_pumps,
-  0.0 AS interior_lighting,
-  0.0 AS exterior_lighting,
-  0.0 AS lighting,
-  0.0 AS plug,
-  0.0 AS pool_spa_heater
- FROM Source17_3
- GROUP BY season, hour;</t>
+          <t>DROP TABLE IF EXISTS Target17_Valid;   CREATE TABLE Target17_Valid (     season VARCHAR(10),     hour INTEGER,     HVAC FLOAT,     water_heating FLOAT,     refrigerator FLOAT,     clothes_washer FLOAT,     clothes_dryer FLOAT,     dishwasher FLOAT,     cooking_range FLOAT,     pool_spa_pumps FLOAT,     interior_lighting FLOAT,     exterior_lighting FLOAT,     lighting FLOAT,     plug FLOAT,     pool_spa_heater FLOAT );   INSERT INTO Target17_Valid (season, hour, HVAC, water_heating, refrigerator, clothes_washer, clothes_dryer, dishwasher, cooking_range, pool_spa_pumps, interior_lighting, exterior_lighting, lighting, plug, pool_spa_heater) SELECT     CASE         WHEN EXTRACT(MONTH FROM "timestamp") IN (3, 4, 5) THEN 'Spring'         WHEN EXTRACT(MONTH FROM "timestamp") IN (6, 7, 8) THEN 'Summer'         WHEN EXTRACT(MONTH FROM "timestamp") IN (9, 10, 11) THEN 'Fall'         ELSE 'Winter'     END AS season,     EXTRACT(HOUR FROM "timestamp") AS hour,     "AC COMPRESSOR WHS [emon ch3,4]" + "AIR HANDLER WHS [emon ch5,6]" + "Minisplit WHS (2-CTs) [xpod chA-7,8]" AS HVAC,     "WATER HEATER WHS [emon ch7,8]" AS water_heating,     "Primary Fridge WHS [emon ch12]" + "2nd Fridge WHS [emon ch13]" AS refrigerator,     0.0 AS clothes_washer,     "DRYER WHS (1-CT) [emon ch9]" + "Dryer WHS (2-CTs) [xpod chA-9,10]" AS clothes_dryer,     "DISH WASHER WHS [emon ch11]" AS dishwasher,     "RANGE WHS (1-CT) [emon ch10]" AS cooking_range,     "POOL PUMP WHS (2-CTs) [xpod chA-3,4]" AS pool_spa_pumps,     0.0 AS interior_lighting,     0.0 AS exterior_lighting,     0.0 AS lighting,     0.0 AS plug,     0.0 AS pool_spa_heater FROM Source17_3;</t>
         </is>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O110" t="n">
         <v>0.27</v>
@@ -13122,21 +14212,27 @@
       </c>
       <c r="Q110" t="inlineStr"/>
       <c r="R110" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="S110" t="n">
-        <v>0</v>
+        <v>1645</v>
       </c>
       <c r="T110" t="n">
-        <v>1617</v>
-      </c>
-      <c r="U110" t="n">
-        <v>16.085</v>
-      </c>
-      <c r="V110" t="inlineStr"/>
+        <v>34.225</v>
+      </c>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="n">
+        <v>6</v>
+      </c>
       <c r="W110" t="n">
-        <v>16.085</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X110" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -13251,26 +14347,37 @@
       </c>
       <c r="Q111" t="inlineStr"/>
       <c r="R111" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="S111" t="n">
-        <v>0</v>
+        <v>3258</v>
       </c>
       <c r="T111" t="n">
-        <v>3258</v>
-      </c>
-      <c r="U111" t="n">
-        <v>25.29</v>
-      </c>
-      <c r="V111" t="inlineStr"/>
+        <v>51.29</v>
+      </c>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="n">
+        <v>6</v>
+      </c>
       <c r="W111" t="n">
-        <v>25.29</v>
+        <v>6</v>
+      </c>
+      <c r="X111" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr">
+        <is>
+          <t>Error: Field 'source17_4. End Use Category' must appear in the GROUP BY clause or be used in an aggregate function
+LINE 52: CASE When "End Use Category"='HVAC 'THE COALESSE ("Num</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Group 18</t>
+          <t>Group 18 (Alias Group 13)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -13315,7 +14422,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Please follow two steps. 
+          <t xml:space="preserve">Please follow two steps. 
 The first step, map "time" to datetime.
 Map several columns need to be summed up to map to a target attribute: 
 HVAC should map to the sum of 'electricity_heating_kwh', 'electricity_central_system_heating_kwh', 'electricity_cooling_kwh', 'electricity_central_system_cooling_kwh', 'electricity_fans_heating_kwh', 'electricity_fans_cooling_kwh', 'electricity_pumps_heating_kwh', 'electricity_central_system_pumps_heating_kwh', 'electricity_pumps_cooling_kwh', 'electricity_central_system_pumps_cooling_kwh', 'electricity_house_fan_kwh', 'electricity_range_fan_kwh', 'electricity_bath_fan_kwh'.
@@ -13324,7 +14431,7 @@
 lighting should map to the sum of 'electricity_interior_lighting_kwh', and 'electricity_exterior_lighting_kwh'. 
 miscellaneous_plug_loads should map to 'electricity_plug_loads_kwh'.
 Total should be mapped to 'net_site_electricity_kwh'.
-The second step, you must  group by for datetime and SUM to aggregate attributes</t>
+</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
@@ -13338,64 +14445,42 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>DROP TABLE IF EXISTS Target18_Valid;
- CREATE TABLE Target18_Valid (
-  datetime TIMESTAMP,
-  HVAC FLOAT,
-  domestic_water_heating FLOAT,
-  major_appliances FLOAT,
-  lighting FLOAT,
-  miscellaneous_plug_loads FLOAT,
-  Total FLOAT
- ); 
- INSERT INTO Target18_Valid (datetime, HVAC, domestic_water_heating, major_appliances, lighting, miscellaneous_plug_loads, Total)
- SELECT
-  time AS datetime,
-  SUM(electricity_heating_kwh + electricity_central_system_heating_kwh +
-  electricity_cooling_kwh + electricity_central_system_cooling_kwh +
-  electricity_fans_heating_kwh + electricity_fans_cooling_kwh +
-  electricity_pumps_heating_kwh + electricity_central_system_pumps_heating_kwh +
-  electricity_pumps_cooling_kwh + electricity_central_system_pumps_cooling_kwh +
-  electricity_house_fan_kwh + electricity_range_fan_kwh + electricity_bath_fan_kwh) AS HVAC,
-  SUM(electricity_water_systems_kwh) AS domestic_water_heating,
-  SUM(electricity_refrigerator_kwh + electricity_clothes_washer_kwh +
-  electricity_clothes_dryer_kwh + electricity_dishwasher_kwh +
-  electricity_cooking_range_kwh + electricity_pool_pump_kwh +
-  electricity_hot_tub_pump_kwh + electricity_pool_heater_kwh +
-  electricity_hot_tub_heater_kwh) AS major_appliances,
-  SUM(electricity_interior_lighting_kwh + electricity_exterior_lighting_kwh) AS lighting,
-  SUM(electricity_plug_loads_kwh) AS miscellaneous_plug_loads,
-  SUM(net_site_electricity_kwh) AS Total
- FROM Source18_1 GROUP BY datetime;</t>
+          <t>DROP TABLE IF EXISTS Target18_Valid; CREATE TABLE Target18_Valid (     datetime TIMESTAMP,     HVAC FLOAT,     domestic_water_heating FLOAT,     major_appliances FLOAT,     lighting FLOAT,     miscellaneous_plug_loads FLOAT,     Total FLOAT );  INSERT INTO Target18_Valid (     datetime,     HVAC,     domestic_water_heating,     major_appliances,     lighting,     miscellaneous_plug_loads,     Total ) SELECT     time AS datetime,     electricity_heating_kwh + electricity_central_system_heating_kwh + electricity_cooling_kwh + electricity_central_system_cooling_kwh + electricity_fans_heating_kwh + electricity_fans_cooling_kwh + electricity_pumps_heating_kwh + electricity_central_system_pumps_heating_kwh + electricity_pumps_cooling_kwh + electricity_central_system_pumps_cooling_kwh + electricity_house_fan_kwh + electricity_range_fan_kwh + electricity_bath_fan_kwh AS HVAC,     electricity_water_systems_kwh AS domestic_water_heating,     electricity_refrigerator_kwh + electricity_clothes_washer_kwh + electricity_clothes_dryer_kwh + electricity_dishwasher_kwh + electricity_cooking_range_kwh + electricity_pool_pump_kwh + electricity_hot_tub_pump_kwh + electricity_pool_heater_kwh + electricity_hot_tub_heater_kwh AS major_appliances,     electricity_interior_lighting_kwh + electricity_exterior_lighting_kwh AS lighting,     electricity_plug_loads_kwh AS miscellaneous_plug_loads,     net_site_electricity_kwh AS Total FROM Source18_1;</t>
         </is>
       </c>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="n">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="O112" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="P112" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="Q112" t="inlineStr"/>
       <c r="R112" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S112" t="n">
-        <v>0</v>
+        <v>1445</v>
       </c>
       <c r="T112" t="n">
-        <v>1458</v>
-      </c>
-      <c r="U112" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="V112" t="inlineStr"/>
+        <v>20.225</v>
+      </c>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="n">
+        <v>6</v>
+      </c>
       <c r="W112" t="n">
-        <v>9.289999999999999</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X112" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -13439,40 +14524,21 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>“4/4/16 18:00”,102.057,388,23.613,77,2.063,9,0.022,4,0.236,1,1.616,95,0.068,11,3.101,83,1.988,34,0.165,6,0.015,1,0.035,1,,0,60.037,82,,0,,0,2.038,237,0.217,30,0.293,22,,0,4.092,265,0.103,134,25.281,238,0.561,58,0.746,14,27.349,301,4.262,57,1.528,42,0.05,4,549.192,423,0.512,8,,0,,0,0,3,0.518,6,0.646,35,2.332,46,0.883,13,4.363,189,2.782,142,6.146,115,3.343,57,2.459,27,0.369,10,0.036,5,0.021,1,7.551,82,0.87,9,4.023,206,4.434,44,0.814,27,0.571,5,15.85,163,0.027,5,0.208,2,,0,0,3,7.832,28,0.018,5,3.371,87,26.764,280,2.877,29,0.29,16,,0,0.335,3,130.861,282,,0,0.035,11,,0,1.006,6,0.801,34,14.053,40,0.008,3,,0,0.286,6
- “4/4/16 18:15”,108.213,388,14.166,77,1.631,9,0.022,4,0.16,1,1.625,95,0.043,11,3.487,83,2.072,34,0.162,6,0.014,1,0.038,1,,0,60.251,82,,0,,0,1.478,237,0.024,30,0.279,22,,0,7.852,265,0.096,134,31.687,238,0.539,58,1.286,14,28.887,301,4.052,57,1.268,42,0.05,4,612.065,423,0.242,8,,0,,0,0,3,0.681,6,4.698,35,2.259,46,0.974,13,3.953,189,3.836,142,7.853,115,3.5,57,2.727,27,0.343,10,0.019,5,0.021,1,8.018,82,0.87,9,6.386,206,4.599,44,0.988,27,0.582,5,12.451,163,0.018,5,0.146,2,,0,0,3,8.298,28,0.014,5,2.035,87,28.036,280,2.385,29,0.29,16,,0,0.201,3,77.407,282,,0,0.033,11,,0,1.171,6,0.785,34,9.527,40,0.006,3,,0,0.327,6
- “4/4/16 18:30”,94.715,388,14.413,77,1.861,9,0.023,4,0.1,1,1.824,95,0.429,11,3.412,83,1.862,34,0.162,6,0.014,1,0.038,1,,0,51.344,82,,0,,0,1.127,237,0.363,30,0.258,22,,0,6.351,265,0.105,134,22.112,238,0.349,58,1.09,14,26.926,301,3.629,57,1.089,42,0.05,4,623.753,423,0.484,8,,0,,0,0,3,0.59,6,4.346,35,2.858,46,0.754,13,4.298,189,1.725,142,10.798,115,3.517,57,2.588,27,0.359,10,0.249,5,0.021,1,8.74,82,0.909,9,3.016,206,4.779,44,1.01,27,0.685,5,12.096,163,0.026,5,0.147,2,,0,0,3,5.972,28,0.018,5,2.234,87,27.121,280,2.534,29,0.289,16,,0,0.005,3,29.184,282,,0,0.054,11,,0,1.109,6,0.679,34,9.595,40,3.512,3,,0,0.406,6
- “4/4/16 18:45”,86.045,388,17.683,77,1.141,9,0.023,4,0.075,1,1.728,95,0.725,11,3.726,83,2.03,34,0.162,6,0.014,1,0.038,1,,0,53.045,82,,0,,0,0.901,237,0.599,30,0.259,22,,0,5.084,265,0.077,134,18.873,238,0.116,58,0.756,14,26.447,301,3.85,57,1.183,42,0.134,4,630.259,423,0.224,8,,0,,0,3,0.012 0.7,6,1.051,35,2.522,46,0.783,13,2.641,189,2.204,142,10.309,115,3.935,57,2.833,27,0.408,10,0.428,5,0.021,1,9.5,82,0.866,9,4.007,206,4.86,44,1.37,27,0.804,5,14.378,163,0.027,5,0.148,2,,0,0,3,5.593,28,0.014,5,1.167,87,26.232,280,2.656,29,0.292,16,,0,0.014,3,12.177,282,,0,0.029,11,,0,0.991,6,0.338,34,15.571,40,1.241,3,,0,0.301,,6
- “4/4/16 19:00”,91.676,388,14.401,77,1.319,9,0.022,4,0.117,1,1.9,96,0.628,11,4.274,83,2.042,34,0.178,6,0.014,1,0.037,1,,0,61.889,82,,0,,0,0.782,238,0.583,30,0.262,22,,0,5.271,266,0.083,135,19.732,238,0.327,58,0.713,14,26.16,302,3.429,57,1.69,43,0.177,4,658.31,423,0.46,8,,0,,0,0,3,0.673,6,1.014,35,2.535,46,0.667,13,2.913,190,1.48,143,11.611,116,4.263,57,2.987,27,0.358,10,0.442,5,0.021,1,10.45,82,0.867,9,2.973,207,4.895,45,1.204,27,0.844,5,8.554,163,0.029,5,0.147,2,,0,0,3,5.381,28,0.018,5,3.787,87,27.235,281,2.131,29,0.291,16,,0,0.009,3,8.327,282,,0,0.061,11,,0,1.08,6,0.376,34,14.635,40,0.004,3,,0,0.338,6</t>
+          <t>4/4/16 18:00’,102.057,388,23.613,77,2.063,9,0.022,4,0.236,1,1.616,95,0.068,11,3.101,83,1.988,34,0.165,6,0.015,1,0.035,1,,0,60.037,82,,0,,0,2.038,237,0.217,30,0.293,22,,0,4.092,265,0.103,134,25.281,238,0.561,58,0.746,14,27.349,301,4.262,57,1.528,42,0.05,4,549.192,423,0.512,8,,0,,0,0,3,0.518,6,0.646,35,2.332,46,0.883,13,4.363,189,2.782,142,6.146,115,3.343,57,2.459,27,0.369,10,0.036,5,0.021,1,7.551,82,0.87,9,4.023,206,4.434,44,0.814,27,0.571,5,15.85,163,0.027,5,0.208,2,,0,0,3,7.832,28,0.018,5,3.371,87,26.764,280,2.877,29,0.29,16,,0,0.335,3,130.861,282,,0,0.035,11,,0,1.006,6,0.801,34,14.053,40,0.008,3,0,0.286,6
+ ‘4/4/16 18:15’,108.213,388,14.166,77,1.631,9,0.022,4,0.16,1,1.625,95,0.043,11,3.487,83,2.072,34,0.162,6,0.014,1,0.038,1,,0,60.251,82,,0,,0,1.478,237,0.024,30,0.279,22,,0,7.852,265,0.096,134,31.687,238,0.539,58,1.286,14,28.887,301,4.052,57,1.268,42,0.05,4,612.065,423,0.242,8,,0,,0,0,3,0.681,6,4.698,35,2.259,46,0.974,13,3.953,189,3.836,142,7.853,115,3.5,57,2.727,27,0.343,10,0.019,5,0.021,1,8.018,82,0.87,9,6.386,206,4.599,44,0.988,27,0.582,5,12.451,163,0.018,5,0.146,2,,0,0,3,8.298,28,0.014,5,2.035,87,28.036,280,2.385,29,0.29,16,,0,0.201,3,77.407,282,,0,0.033,11,,0,1.171,6,0.785,34,9.527,40,0.006,3,0,0.327,6
+ ‘4/4/16 18:30’,94.715,388,14.413,77,1.861,9,0.023,4,0.1,1,1.824,95,0.429,11,3.412,83,1.862,34,0.162,6,0.014,1,0.038,1,,0,51.344,82,,0,,0,1.127,237,0.363,30,0.258,22,,0,6.351,265,0.105,134,22.112,238,0.349,58,1.09,14,26.926,301,3.629,57,1.089,42,0.05,4,623.753,423,0.484,8,,0,,0,0,3,0.59,6,4.346,35,2.858,46,0.754,13,4.298,189,1.725,142,10.798,115,3.517,57,2.588,27,0.359,10,0.249,5,0.021,1,8.74,82,0.909,9,3.016,206,4.779,44,1.01,27,0.685,5,12.096,163,0.026,5,0.147,2,,0,0,3,5.972,28,0.018,5,2.234,87,27.121,280,2.534,29,0.289,16,,0,0.005,3,29.184,282,,0,0.054,11,,0,1.109,6,0.679,34,9.595,40,3.512,3,0,0.406,6
+ ‘4/4/16 18:45’,86.045,388,17.683,77,1.141,9,0.023,4,0.075,1,1.728,95,0.725,11,3.726,83,2.03,34,0.162,6,0.014,1,0.038,1,,0,53.045,82,,0,,0,0.901,237,0.599,30,0.259,22,,0,5.084,265,0.077,134,18.873,238,0.116,58,0.756,14,26.447,301,3.85,57,1.183,42,0.134,4,630.259,423,0.224,8,,0,,0,3,0.012 0.7,6,1.051,35,2.522,46,0.783,13,2.641,189,2.204,142,10.309,115,3.935,57,2.833,27,0.408,10,0.428,5,0.021,1,9.5,82,0.866,9,4.007,206,4.86,44,1.37,27,0.804,5,14.378,163,0.027,5,0.148,2,,0,0,3,5.593,28,0.014,5,1.167,87,26.232,280,2.656,29,0.292,16,,0,0.014,3,12.177,282,,0,0.029,11,,0,0.991,6,0.338,34,15.571,40,1.241,3,0,0.301,6
+ ‘4/4/16 19:00’,91.676,388,14.401,77,1.319,9,0.022,4,0.117,1,1.9,96,0.628,11,4.274,83,2.042,34,0.178,6,0.014,1,0.037,1,,0,61.889,82,,0,,0,0.782,238,0.583,30,0.262,22,,0,5.271,266,0.083,135,19.732,238,0.327,58,0.713,14,26.16,302,3.429,57,1.69,43,0.177,4,658.31,423,0.46,8,,0,,0,0,3,0.673,6,1.014,35,2.535,46,0.667,13,2.913,190,1.48,143,11.611,116,4.263,57,2.987,27,0.358,10,0.442,5,0.021,1,10.45,82,0.867,9,2.973,207,4.895,45,1.204,27,0.844,5,8.554,163,0.029,5,0.147,2,,0,0,3,5.381,28,0.018,5,3.787,87,27.235,281,2.131,29,0.291,16,,0,0.009,3,8.327,282,,0,0.061,11,,0,1.08,6,0.376,34,14.635,40,0.004,3,0,0.338,6</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>DROP TABLE IF EXISTS Target18_Valid;
- CREATE TABLE Target18_Valid (
-  datetime TIMESTAMP,
-  HVAC FLOAT,
-  domestic_water_heating FLOAT,
-  major_appliances FLOAT,
-  lighting FLOAT,
-  miscellaneous_plug_loads FLOAT,
-  Total FLOAT
- ); 
- INSERT INTO Target18_Valid (datetime, HVAC, domestic_water_heating, major_appliances, lighting, miscellaneous_plug_loads, Total)
- SELECT
-  local_15min AS datetime,
-  COALESCE(SUM(airwindowunit1_sum + furnace1_sum + furnace2_sum + housefan1_sum + venthood1_sum), 0) AS HVAC,
-  COALESCE(SUM(waterheater1_sum + waterheater2_sum), 0) AS domestic_water_heating,
-  COALESCE(SUM(refrigerator1_sum + clotheswasher1_sum + drye1_sum + dishwasher1_sum + oven1_sum + oven2_sum + range1_sum + poolpump1_sum), 0) AS major_appliances,
-  COALESCE(SUM(lights_plugs1_sum + lights_plugs2_sum + lights_plugs3_sum + lights_plugs4_sum + lights_plugs5_sum + lights_plugs6_sum + outsidelights_plugs1_sum + outsidelights_plugs2_sum + poollight1_sum), 0) AS lighting,
-  COALESCE(SUM(aquarium1_sum + disposal1_sum + kitchenapp1_sum + kitchenapp2_sum + microwave1_sum + security1_sum + shed1_sum + sprinkler1_sum + pump1_sum + icemaker1_sum + freezer1_sum + refrigerator2_sum + winecooler1_sum + car1_sum), 0) AS miscellaneous_plug_loads,
-  0 as Total
- FROM Sourve18_2 GROUP BY datetime;</t>
+          <t>DROP TABLE IF EXISTS Target18_Valid; CREATE TABLE Target18_Valid (     datetime TIMESTAMP,     HVAC FLOAT,     domestic_water_heating FLOAT,     major_appliances FLOAT,     lighting FLOAT,     miscellaneous_plug_loads FLOAT,     Total FLOAT );  INSERT INTO Target18_Valid (datetime, HVAC, domestic_water_heating, major_appliances, lighting, miscellaneous_plug_loads, Total) SELECT      TO_TIMESTAMP(SUBSTRING(local_15min, 1, 16), 'MM/DD/YY HH24:MI') AS datetime,     COALESCE(airwindowunit1_sum, 0) + COALESCE(furnace1_sum, 0) + COALESCE(furnace2_sum, 0) + COALESCE(housefan1_sum, 0) + COALESCE(venthood1_sum, 0) AS HVAC,     COALESCE(waterheater1_sum, 0) + COALESCE(waterheater2_sum, 0) AS domestic_water_heating,     COALESCE(refrigerator1_sum, 0) + COALESCE(clotheswasher1_sum, 0) + COALESCE(drye1_sum, 0) + COALESCE(dishwasher1_sum, 0) + COALESCE(oven1_sum, 0) + COALESCE(oven2_sum, 0) + COALESCE(range1_sum, 0) + COALESCE(poolpump1_sum, 0) AS major_appliances,     COALESCE(lights_plugs1_sum, 0) + COALESCE(lights_plugs2_sum, 0) + COALESCE(lights_plugs3_sum, 0) + COALESCE(lights_plugs4_sum, 0) + COALESCE(lights_plugs5_sum, 0) + COALESCE(lights_plugs6_sum, 0) + COALESCE(outsidelights_plugs1_sum, 0) + COALESCE(outsidelights_plugs2_sum, 0) + COALESCE(poollight1_sum, 0) AS lighting,     COALESCE(aquarium1_sum, 0) + COALESCE(disposal1_sum, 0) + COALESCE(kitchenapp1_sum, 0) + COALESCE(kitchenapp2_sum, 0) + COALESCE(microwave1_sum, 0) + COALESCE(security1_sum, 0) + COALESCE(shed1_sum, 0) + COALESCE(sprinkler1_sum, 0) + COALESCE(pump1_sum, 0) + COALESCE(icemaker1_sum, 0) + COALESCE(freezer1_sum, 0) + COALESCE(refrigerator2_sum, 0) + COALESCE(winecooler1_sum, 0) + COALESCE(car1_sum, 0) AS miscellaneous_plug_loads,     0.0 AS Total FROM Source18_2;</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113" t="n">
         <v>0</v>
@@ -13482,21 +14548,27 @@
       </c>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="S113" t="n">
-        <v>0</v>
+        <v>1757</v>
       </c>
       <c r="T113" t="n">
-        <v>1293</v>
-      </c>
-      <c r="U113" t="n">
-        <v>9.465</v>
-      </c>
-      <c r="V113" t="inlineStr"/>
+        <v>22.785</v>
+      </c>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="n">
+        <v>6</v>
+      </c>
       <c r="W113" t="n">
-        <v>9.465</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="X113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -13580,25 +14652,790 @@
         <v>0.29</v>
       </c>
       <c r="P114" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="S114" t="n">
+        <v>1033</v>
+      </c>
+      <c r="T114" t="n">
+        <v>23.165</v>
+      </c>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="n">
+        <v>6</v>
+      </c>
+      <c r="W114" t="n">
+        <v>6</v>
+      </c>
+      <c r="X114" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Group 19</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Target19</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>"Date" TEXT, "Stock" TEXT, "Close" FLOAT, "High" FLOAT, "Low" FLOAT, "Open" FLOAT, "Volume" FLOAT</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>The Stock values should be the ticker names, examples are 'FB', ''TWTR', and 'APPL'.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Source19_1</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>"Date" TEXT, "CFALTERYX.FB - Open" FLOAT, "CFALTERYX.FB - High" FLOAT, "CFALTERYX.FB - Low" FLOAT, "CFALTERYX.FB - Close" FLOAT, "CFALTERYX.FB - Volume" FLOAT, "CFALTERYX.TWTR - Open" FLOAT, "CFALTERYX.TWTR - High" FLOAT, "CFALTERYX.TWTR - Low" FLOAT, "CFALTERYX.TWTR - Close" FLOAT, "CFALTERYX.TWTR - Volume" FLOAT, "CFALTERYX.AAPL - Open" FLOAT, "CFALTERYX.AAPL - High" FLOAT, "CFALTERYX.AAPL - Low" FLOAT, "CFALTERYX.AAPL - Close" FLOAT, "CFALTERYX.AAPL - Volume" FLOAT, "CFALTERYX.SBUX - Open" FLOAT, "CFALTERYX.SBUX - High" FLOAT, "CFALTERYX.SBUX - Low" FLOAT, "CFALTERYX.SBUX - Close" FLOAT, "CFALTERYX.SBUX - Volume" FLOAT, "CFALTERYX.MSFT - Open" FLOAT, "CFALTERYX.MSFT - High" FLOAT, "CFALTERYX.MSFT - Low" FLOAT, "CFALTERYX.MSFT - Close" FLOAT, "CFALTERYX.MSFT - Volume" FLOAT</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>5/30/14        63.95        64.17        62.56        63.3        45283577        33.73        33.86        32.11        32.44        40603942        91.14        92.02        89.84        90.43        141005137        73.16        73.5        72.53        73.24        3439767        40.45        40.97        40.25        40.94        34575579
+5/29/14        63.84        64.3        63.51        63.83        42699670        34.67        35.14        33.88        34        54016285        89.69        90.98        89.68        90.77        94118633        73.52        73.56        72.65        73.11        3224439        40.15        40.35        39.91        40.34        19893872
+5/28/14        63.39        64.14        62.62        63.51        47795088        31.5        33.84        31.09        33.77        60302764        89.43        89.98        89.11        89.14        78921885        73.3        73.57        72.92        73.27        4106015        40.14        40.19        39.82        40.01        25711565
+5/27/14        61.62        63.51        61.57        63.48        55681663        30.94        31.2        30.38        30.51        25240098        87.98        89.41        87.95        89.38        87216605        72.64        73.78        72.54        73.66        5050199        40.26        40.26        39.81        40.19        26161164
+5/23/14        60.41        61.45        60.15        61.35        38293993        31.51        31.68        30.45        30.5        27448011        607.25        614.73        606.47        614.13        8293213        72.29        72.51        71.83        71.98        3583155        40.37        40.37        40        40.12        18020866</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>-- Creating the Source19_1 table
+DROP TABLE IF EXISTS Source19_1;
+CREATE TABLE Source19_1 (
+    "Date" TEXT,
+    "CFALTERYX.FB - Open" FLOAT,
+    "CFALTERYX.FB - High" FLOAT,
+    "CFALTERYX.FB - Low" FLOAT,
+    "CFALTERYX.FB - Close" FLOAT,
+    "CFALTERYX.FB - Volume" FLOAT,
+    "CFALTERYX.TWTR - Open" FLOAT,
+    "CFALTERYX.TWTR - High" FLOAT,
+    "CFALTERYX.TWTR - Low" FLOAT,
+    "CFALTERYX.TWTR - Close" FLOAT,
+    "CFALTERYX.TWTR - Volume" FLOAT,
+    "CFALTERYX.AAPL - Open" FLOAT,
+    "CFALTERYX.AAPL - High" FLOAT,
+    "CFALTERYX.AAPL - Low" FLOAT,
+    "CFALTERYX.AAPL - Close" FLOAT,
+    "CFALTERYX.AAPL - Volume" FLOAT,
+    "CFALTERYX.SBUX - Open" FLOAT,
+    "CFALTERYX.SBUX - High" FLOAT,
+    "CFALTERYX.SBUX - Low" FLOAT,
+    "CFALTERYX.SBUX - Close" FLOAT,
+    "CFALTERYX.SBUX - Volume" FLOAT,
+    "CFALTERYX.MSFT - Open" FLOAT,
+    "CFALTERYX.MSFT - High" FLOAT,
+    "CFALTERYX.MSFT - Low" FLOAT,
+    "CFALTERYX.MSFT - Close" FLOAT,
+    "CFALTERYX.MSFT - Volume" FLOAT
+);
+-- Inserting data into Source19_1
+INSERT INTO Source19_1 VALUES 
+('5/30/14', 63.95, 64.17, 62.56, 63.3, 45283577, 33.73, 33.86, 32.11, 32.44, 40603942, 91.14, 92.02, 89.84, 90.43, 141005137, 73.16, 73.5, 72.53, 73.24, 3439767, 40.45, 40.97, 40.25, 40.94, 34575579),
+('5/29/14', 63.84, 64.3, 63.51, 63.83, 42699670, 34.67, 35.14, 33.88, 34, 54016285, 89.69, 90.98, 89.68, 90.77, 94118633, 73.52, 73.56, 72.65, 73.11, 3224439, 40.15, 40.35, 39.91, 40.34, 19893872),
+('5/28/14', 63.39, 64.14, 62.62, 63.51, 47795088, 31.5, 33.84, 31.09, 33.77, 60302764, 89.43, 89.98, 89.11, 89.14, 78921885, 73.3, 73.57, 72.92, 73.27, 4106015, 40.14, 40.19, 39.82, 40.01, 25711565),
+('5/27/14', 61.62, 63.51, 61.57, 63.48, 55681663, 30.94, 31.2, 30.38, 30.51, 25240098, 87.98, 89.41, 87.95, 89.38, 87216605, 72.64, 73.78, 72.54, 73.66, 5050199, 40.26, 40.26, 39.81, 40.19, 26161164),
+('5/23/14', 60.41, 61.45, 60.15, 61.35, 38293993, 31.51, 31.68, 30.45, 30.5, 27448011, 607.25, 614.73, 606.47, 614.13, 8293213, 72.29, 72.51, 71.83, 71.98, 3583155, 40.37, 40.37, 40, 40.12, 18020866);
+-- Creating the Target19_Valid table
+DROP TABLE IF EXISTS Target19_Valid;
+CREATE TABLE Target19_Valid (
+    "Date" TEXT,
+    "Stock" TEXT,
+    "Close" FLOAT,
+    "High" FLOAT,
+    "Low" FLOAT,
+    "Open" FLOAT,
+    "Volume" FLOAT
+);
+-- Inserting data from Source19_1 to Target19_Valid
+WITH stocks as (
+    SELECT "Date", 
+           'FB' as Stock, 
+           "CFALTERYX.FB - Close" as Close, 
+           "CFALTERYX.FB - High" as High, 
+           "CFALTERYX.FB - Low" as Low, 
+           "CFALTERYX.FB - Open" as Open, 
+           "CFALTERYX.FB - Volume" as Volume FROM Source19_1
+    UNION ALL
+    SELECT "Date", 
+           'TWTR', 
+           "CFALTERYX.TWTR - Close", 
+           "CFALTERYX.TWTR - High", 
+           "CFALTERYX.TWTR - Low", 
+           "CFALTERYX.TWTR - Open", 
+           "CFALTERYX.TWTR - Volume" FROM Source19_1
+    UNION ALL
+    SELECT "Date", 
+           'AAPL', 
+           "CFALTERYX.AAPL - Close", 
+           "CFALTERYX.AAPL - High", 
+           "CFALTERYX.AAPL - Low", 
+           "CFALTERYX.AAPL - Open", 
+           "CFALTERYX.AAPL - Volume" FROM Source19_1
+    UNION ALL
+    SELECT "Date", 
+           'SBUX', 
+           "CFALTERYX.SBUX - Close", 
+           "CFALTERYX.SBUX - High", 
+           "CFALTERYX.SBUX - Low", 
+           "CFALTERYX.SBUX - Open", 
+           "CFALTERYX.SBUX - Volume" FROM Source19_1
+    UNION ALL
+    SELECT "Date", 
+           'MSFT', 
+           "CFALTERYX.MSFT - Close", 
+           "CFALTERYX.MSFT - High", 
+           "CFALTERYX.MSFT - Low", 
+           "CFALTERYX.MSFT - Open", 
+           "CFALTERYX.MSFT - Volume" FROM Source19_1
+)
+INSERT INTO Target19_Valid
+SELECT * FROM stocks;</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>1
+'CFALTERYX.FB' v.s. 'FB'</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="n">
+        <v>21</v>
+      </c>
+      <c r="S115" t="n">
+        <v>3707</v>
+      </c>
+      <c r="T115" t="n">
+        <v>39.535</v>
+      </c>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="n">
+        <v>1</v>
+      </c>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Group 20</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Target20</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>"State Name" TEXT, "Year" TEXT, "Month" TEXT, "Cocaine (T40.5)" INTEGER, "Heroin (T40.1)" INTEGER, "Methadone (T40.3)" INTEGER, "Natural &amp; semi-synthetic opioids (T40.2)" INTEGER, "Number of Deaths" INTEGER, "Number of Drug Overdose Deaths" INTEGER, "Opioids (T40.0-T40.4,T40.6)" INTEGER, "Psychostimulants with abuse potential (T43.6)" INTEGER, "Synthetic opioids, excl. methadone (T40.4)" INTEGER</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Source20_1</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>"State" TEXT, "State Name" TEXT, "Year" TEXT, "Month" TEXT, "Indicator" TEXT, "Data Value" INTEGER, "Predicted Value" INTEGER, "Percent Complete" INTEGER, "Percent Pending Investigation" INTEGER, "Footnote" TEXT</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>CO        Colorado        2015        December        Number of Drug Overdose Deaths        913        923        100        0.040548212        None
+CO        Colorado        2016        December        Number of Drug Overdose Deaths        965        974        100        0.031453959        None
+CT        Connecticut        2015        December        Cocaine (T40.5)        168        174        100        0.016339869        None
+CT        Connecticut        2016        December        Cocaine (T40.5)        237        246        100        0.026108808        None
+CT        Connecticut        2015        December        Heroin (T40.1)        394        396        100        0.016339869        None</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-- Drop and Create the Source20_1 table
+DROP TABLE IF EXISTS Source20_1;
+CREATE TABLE Source20_1 (
+    "State" TEXT,
+    "State Name" TEXT,
+    "Year" TEXT,
+    "Month" TEXT,
+    "Indicator" TEXT,
+    "Data Value" INTEGER,
+    "Predicted Value" INTEGER,
+    "Percent Complete" INTEGER,
+    "Percent Pending Investigation" FLOAT,
+    "Footnote" TEXT
+);
+-- Insert data into Source20_1
+INSERT INTO Source20_1 
+VALUES
+('CO', 'Colorado', '2015', 'December', 'Number of Drug Overdose Deaths', 913, 923, 100, 0.040548212, NULL),
+('CO', 'Colorado', '2016', 'December', 'Number of Drug Overdose Deaths', 965, 974, 100, 0.031453959, NULL),
+('CT', 'Connecticut', '2015', 'December', 'Cocaine (T40.5)', 168, 174, 100, 0.016339869, NULL),
+('CT', 'Connecticut', '2016', 'December', 'Cocaine (T40.5)', 237, 246, 100, 0.026108808, NULL),
+('CT', 'Connecticut', '2015', 'December', 'Heroin (T40.1)', 394, 396, 100, 0.016339869, NULL);
+-- Drop and Create the Target20_Valid table
+DROP TABLE IF EXISTS Target20_Valid;
+CREATE TABLE Target20_Valid (
+    "State Name" TEXT,
+    "Year" TEXT,
+    "Month" TEXT,
+    "Cocaine (T40.5)" INTEGER,
+    "Heroin (T40.1)" INTEGER,
+    "Methadone (T40.3)" INTEGER,
+    "Natural &amp; semi-synthetic opioids (T40.2)" INTEGER,
+    "Number of Deaths" INTEGER,
+    "Number of Drug Overdose Deaths" INTEGER,
+    "Opioids (T40.0-T40.4,T40.6)" INTEGER,
+    "Psychostimulants with abuse potential (T43.6)" INTEGER,
+    "Synthetic opioids, excl. methadone (T40.4)" INTEGER
+);
+-- Insert selected data from Source20_1 to Target20_Valid
+INSERT INTO Target20_Valid ("State Name", "Year", "Month", "Cocaine (T40.5)", "Heroin (T40.1)", "Number of Drug Overdose Deaths")
+SELECT 
+    "State Name", 
+    "Year", 
+    "Month", 
+    CASE WHEN "Indicator" = 'Cocaine (T40.5)' THEN "Data Value" ELSE NULL END AS "Cocaine (T40.5)",
+    CASE WHEN "Indicator" = 'Heroin (T40.1)' THEN "Data Value" ELSE NULL END AS "Heroin (T40.1)",
+    CASE WHEN "Indicator" = 'Number of Drug Overdose Deaths' THEN "Data Value" ELSE NULL END AS "Number of Drug Overdose Deaths"
+FROM Source20_1;
+</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="n">
+        <v>34</v>
+      </c>
+      <c r="S116" t="n">
+        <v>2068</v>
+      </c>
+      <c r="T116" t="n">
+        <v>44.34</v>
+      </c>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="n">
+        <v>1</v>
+      </c>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Group 21</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Target21</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>"Year" TEXT, "Indicator" TEXT, "Data Value" INTEGER</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Data value is the overall value of a specific indicator over the year.</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Source21_1</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>"State" TEXT, "State Name" TEXT, "Year" TEXT, "Month" TEXT, "Indicator" TEXT, "Data Value" INTEGER, "Predicted Value" INTEGER, "Percent Complete" INTEGER, "Percent Pending Investigation" INTEGER, "Footnote" TEXT</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>CO        Colorado        2015        December        Number of Drug Overdose Deaths        913        923        100        0.040548212        None
+CO        Colorado        2016        December        Number of Drug Overdose Deaths        965        974        100        0.031453959        None
+CT        Connecticut        2015        December        Cocaine (T40.5)        168        174        100        0.016339869        None
+CT        Connecticut        2016        December        Cocaine (T40.5)        237        246        100        0.026108808        None
+CT        Connecticut        2015        December        Heroin (T40.1)        394        396        100        0.016339869        None</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>-- Drop and Create the Source21_1 table
+DROP TABLE IF EXISTS Source21_1;
+CREATE TABLE Source21_1 (
+    "State" TEXT,
+    "State Name" TEXT,
+    "Year" TEXT,
+    "Month" TEXT,
+    "Indicator" TEXT,
+    "Data Value" INTEGER,
+    "Predicted Value" INTEGER,
+    "Percent Complete" INTEGER,
+    "Percent Pending Investigation" FLOAT,
+    "Footnote" TEXT
+);
+-- Insert data into Source21_1
+INSERT INTO Source21_1 
+VALUES
+('CO', 'Colorado', '2015', 'December', 'Number of Drug Overdose Deaths', 913, 923, 100, 0.040548212, NULL),
+('CO', 'Colorado', '2016', 'December', 'Number of Drug Overdose Deaths', 965, 974, 100, 0.031453959, NULL),
+('CT', 'Connecticut', '2015', 'December', 'Cocaine (T40.5)', 168, 174, 100, 0.016339869, NULL),
+('CT', 'Connecticut', '2016', 'December', 'Cocaine (T40.5)', 237, 246, 100, 0.026108808, NULL),
+('CT', 'Connecticut', '2015', 'December', 'Heroin (T40.1)', 394, 396, 100, 0.016339869, NULL);
+-- Drop and Create the Target21_Valid table
+DROP TABLE IF EXISTS Target21_Valid;
+CREATE TABLE Target21_Valid (
+    "Year" TEXT,
+    "Indicator" TEXT,
+    "Data Value" INTEGER
+);
+-- Insert aggregated data from Source21_1 to Target21_Valid
+INSERT INTO Target21_Valid ("Year", "Indicator", "Data Value")
+SELECT 
+    "Year", 
+    "Indicator",
+    SUM("Data Value") 
+FROM Source21_1
+GROUP BY "Year", "Indicator";</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="n">
+        <v>29</v>
+      </c>
+      <c r="S117" t="n">
+        <v>1327</v>
+      </c>
+      <c r="T117" t="n">
+        <v>35.635</v>
+      </c>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="n">
+        <v>1</v>
+      </c>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Group 22</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Target22</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>"Sales_Team__c" TEXT, "Type" TEXT, "ToDate" TEXT, "StageName" TEXT, "AccountId" TEXT, "Opportunity_ID__c" TEXT, "SplitAmount" FLOAT, "Sales_Territory__c" TEXT, "CreatedDate_y" TEXT, "Full_Name__c" TEXT, "SplitPercentage" INTEGER, "CloseDateDiff" FLOAT, "Amount" FLOAT, "CreatedDateDiff" FLOAT, "Name" TEXT, "CloseDate" TEXT, "SplitOwnerId" TEXT, "OwnerId" TEXT, "OpportunityId" TEXT, "CreatedDate_x" TEXT, "Id" TEXT, "variable" TEXT, "Split_TimeFrame" TEXT, "Closed" INTEGER, "Created" INTEGER</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>The Target table should have the exact attributes in the target data schema.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Source22_1</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>"AccountId" TEXT, "CloseDate" TEXT, "Amount" FLOAT, "CreatedDate_x" TEXT, "OwnerId" TEXT, "Type" TEXT, "Opportunity_ID__c" TEXT, "Name" TEXT, "StageName" TEXT, "OpportunityId" TEXT, "SplitPercentage" INTEGER, "SplitOwnerId" TEXT, "SplitAmount" FLOAT, "CreatedDate_y" TEXT, "Full_Name__c" TEXT, "Sales_Team__c" TEXT, "Sales_Territory__c" TEXT, "Id" TEXT, "ToDate" TEXT, "CreatedDateDiff" FLOAT, "CloseDateDiff" FLOAT, "3mos_Created" INTEGER, "6mos_Created" INTEGER, "9mos_Created" INTEGER, "12mos_Created" INTEGER, "3mos_Closed" INTEGER, "6mos_Closed" INTEGER, "9mos_Closed" INTEGER, "12mos_Closed" INTEGER, "CY_Created" INTEGER, "CY_Closed" INTEGER</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>001E000000VyosS5fa        5/3/16 0:00        6655.56        4/18/16 22:15        005E000000UttrqIIQ        NBEC        006E000000Id0m5gca8        Shop N Save Whse Foods Inc        7 - Closed Won        006E000000Id0m5gca8        100        005E000000UttrqIIQ        6655.56        4/18/16 22:15        Carmel Cockerham        Field        SMB        005E000000UttrqIIQ        1/1/17 0:00        8.446078823        7.983736832        0        0        1        1        0        0        1        1        1        1
+001E000000Tq8xzjd04        5/3/16 0:00        11067.44        4/9/16 19:49        005E000000UttrqIIQ        NBEC        006E000000OIJv8Ung        Bike Universe        7 - Closed Won        006E000000OIJv8Ung        100        005E000000UttrqIIQ        11067.44        4/9/16 19:49        Carmel Cockerham        Field        SMB        005E000000UttrqIIQ        1/1/17 0:00        8.745120251        7.983736832        0        0        1        1        0        0        1        1        1        1
+001E000000YTuXmn05i        5/3/16 0:00        107689.44        3/30/16 22:24        005E000000OUwLH1L6        NBEC        006E000000xiPHnpyY        Henrietta D Goodall Hosp  Inc        7 - Closed Won        006E000000xiPHnpyY        50        005E000000UttrqIIQ        53844.72        3/30/16 22:24        Carmel Cockerham        Field        SMB        005E000000UttrqIIQ        1/1/17 0:00        9.070133009        7.983736832        0        0        0        1        0        0        1        1        1        1
+001E000000apJghyVx        5/4/16 0:00        5950.35        3/25/16 10:11        005E000000UttrqIIQ        NB        006E000000MvwGojba        Austin Jack De Coster        Disqualified        006E000000MvwGojba        100        005E000000UttrqIIQ        5950.35        3/25/16 10:11        Carmel Cockerham        Field        SMB        005E000000UttrqIIQ        1/1/17 0:00        9.251128436        7.950881948        0        0        0        1        0        0        0        0        1        0
+001E000000Pn0ZbYVoO        5/4/16 0:00        4335.76        3/18/16 13:01        005E000000UttrqIIQ        NB        006E000000rZrhrXsx0        Eveready Battery Company  Inc        Closed Lost        006E000000rZrhrXsx0        100        005E000000UttrqIIQ        4335.76        3/18/16 13:01        Carmel Cockerham        Field        SMB        005E000000UttrqIIQ        1/1/17 0:00        9.477234684        7.950881948        0        0        0        1        0        0        0        0        1        0</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-- Drop and Create the Source22_1 table
+DROP TABLE IF EXISTS Source22_1;
+CREATE TABLE Source22_1 (
+    "AccountId" TEXT,
+    "CloseDate" TEXT,
+    "Amount" FLOAT,
+    "CreatedDate_x" TEXT,
+    "OwnerId" TEXT,
+    "Type" TEXT,
+    "Opportunity_ID__c" TEXT,
+    "Name" TEXT,
+    "StageName" TEXT,
+    "OpportunityId" TEXT,
+    "SplitPercentage" INTEGER,
+    "SplitOwnerId" TEXT,
+    "SplitAmount" FLOAT,
+    "CreatedDate_y" TEXT,
+    "Full_Name__c" TEXT,
+    "Sales_Team__c" TEXT,
+    "Sales_Territory__c" TEXT,
+    "Id" TEXT,
+    "ToDate" TEXT,
+    "CreatedDateDiff" FLOAT,
+    "CloseDateDiff" FLOAT,
+    "3mos_Created" INTEGER,
+    "6mos_Created" INTEGER,
+    "9mos_Created" INTEGER,
+    "12mos_Created" INTEGER,
+    "3mos_Closed" INTEGER,
+    "6mos_Closed" INTEGER,
+    "9mos_Closed" INTEGER,
+    "12mos_Closed" INTEGER,
+    "CY_Created" INTEGER,
+    "CY_Closed" INTEGER
+);
+-- Insert data into Source22_1
+INSERT INTO Source22_1 
+VALUES
+('001E000000VyosS5fa','5/3/16 0:00',6655.56,'4/18/16 22:15','005E000000UttrqIIQ','NBEC','006E000000Id0m5gca8','Shop N Save Whse Foods Inc','7 - Closed Won','006E000000Id0m5gca8',100,'005E000000UttrqIIQ',6655.56,'4/18/16 22:15','Carmel Cockerham','Field','SMB','005E000000UttrqIIQ','1/1/17 0:00',8.446078823,7.983736832,0,0,1,1,0,0,1,1,1,1),
+('001E000000Tq8xzjd04','5/3/16 0:00',11067.44,'4/9/16 19:49','005E000000UttrqIIQ','NBEC','006E000000OIJv8Ung','Bike Universe','7 - Closed Won','006E000000OIJv8Ung',100,'005E000000UttrqIIQ',11067.44,'4/9/16 19:49','Carmel Cockerham','Field','SMB','005E000000UttrqIIQ','1/1/17 0:00',8.745120251,7.983736832,0,0,1,1,0,0,1,1,1,1),
+('001E000000YTuXmn05i','5/3/16 0:00',107689.44,'3/30/16 22:24','005E000000OUwLH1L6','NBEC','006E000000xiPHnpyY','Henrietta D Goodall Hosp  Inc','7 - Closed Won','006E000000xiPHnpyY',50,'005E000000UttrqIIQ',53844.72,'3/30/16 22:24','Carmel Cockerham','Field','SMB','005E000000UttrqIIQ','1/1/17 0:00',9.070133009,7.983736832,0,0,0,1,0,0,1,1,1,1),
+('001E000000apJghyVx','5/4/16 0:00',5950.35,'3/25/16 10:11','005E000000UttrqIIQ','NB','006E000000MvwGojba','Austin Jack De Coster','Disqualified','006E000000MvwGojba',100,'005E000000UttrqIIQ',5950.35,'3/25/16 10:11','Carmel Cockerham','Field','SMB','005E000000UttrqIIQ','1/1/17 0:00',9.251128436,7.950881948,0,0,0,1,0,0,0,0,1,0),
+('001E000000Pn0ZbYVoO','5/4/16 0:00',4335.76,'3/18/16 13:01','005E000000UttrqIIQ','NB','006E000000rZrhrXsx0','Eveready Battery Company  Inc','Closed Lost','006E000000rZrhrXsx0',100,'005E000000UttrqIIQ',4335.76,'3/18/16 13:01','Carmel Cockerham','Field','SMB','005E000000UttrqIIQ','1/1/17 0:00',9.519071965,7.950881948,0,0,0,1,0,0,0,0,1,0);
+-- Drop and Create the Target22_Valid table
+DROP TABLE IF EXISTS Target22_Valid;
+CREATE TABLE Target22_Valid (
+    "Sales_Team__c" TEXT,
+    "Type" TEXT,
+    "ToDate" TEXT,
+    "StageName" TEXT,
+    "AccountId" TEXT,
+    "Opportunity_ID__c" TEXT,
+    "SplitAmount" FLOAT,
+    "Sales_Territory__c" TEXT,
+    "CreatedDate_y" TEXT,
+    "Full_Name__c" TEXT,
+    "SplitPercentage" INTEGER,
+    "CloseDateDiff" FLOAT,
+    "Amount" FLOAT,
+    "CreatedDateDiff" FLOAT,
+    "Name" TEXT,
+    "CloseDate" TEXT,
+    "SplitOwnerId" TEXT,
+    "OwnerId" TEXT,
+    "OpportunityId" TEXT,
+    "CreatedDate_x" TEXT,
+    "Id" TEXT,
+    "variable" TEXT,
+    "Split_TimeFrame" TEXT,
+    "Closed" INTEGER,
+    "Created" INTEGER
+);
+-- Insert data from Source22_1 to Target22_Valid
+INSERT INTO Target22_Valid ("Sales_Team__c", "Type", "ToDate", "StageName", "AccountId", "Opportunity_ID__c", "SplitAmount", "Sales_Territory__c", "CreatedDate_y", "Full_Name__c", "SplitPercentage", "CloseDateDiff", "Amount", "CreatedDateDiff", "Name", "CloseDate", "SplitOwnerId", "OwnerId", "OpportunityId", "CreatedDate_x", "Id")
+SELECT 
+    "Sales_Team__c", 
+    "Type", 
+    "ToDate", 
+    "StageName", 
+    "AccountId", 
+    "Opportunity_ID__c", 
+    "SplitAmount", 
+    "Sales_Territory__c", 
+    "CreatedDate_y", 
+    "Full_Name__c", 
+    "SplitPercentage", 
+    "CloseDateDiff", 
+    "Amount", 
+    "CreatedDateDiff", 
+    "Name", 
+    "CloseDate", 
+    "SplitOwnerId", 
+    "OwnerId", 
+    "OpportunityId", 
+    "CreatedDate_x", 
+    "Id"
+FROM Source22_1;
+</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="n">
+        <v>19</v>
+      </c>
+      <c r="S118" t="n">
+        <v>4146</v>
+      </c>
+      <c r="T118" t="n">
+        <v>39.73</v>
+      </c>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="n">
+        <v>1</v>
+      </c>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Group 23</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Target23</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Source23_1</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="n">
         <v>0</v>
       </c>
-      <c r="T114" t="n">
-        <v>1033</v>
-      </c>
-      <c r="U114" t="n">
-        <v>7.165</v>
-      </c>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="n">
-        <v>7.165</v>
-      </c>
+      <c r="S119" t="n">
+        <v>3</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Group 24</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Target24</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Source24_1</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
+      <c r="S120" t="n">
+        <v>3</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Group 25</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Target25</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Source25_1</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
+      <c r="S121" t="n">
+        <v>3</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Group 26</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Target26</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Source26_1</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
+      <c r="S122" t="n">
+        <v>3</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
